--- a/HasNameCo Master-Plan.xlsx
+++ b/HasNameCo Master-Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/Study materials/Accounting &amp; Ethics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7884D48F-4FF1-4E2B-B36C-E341742BAD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C6371-F7DB-E54E-AC16-55F0723E84D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="54420" yWindow="-7600" windowWidth="25580" windowHeight="28800" activeTab="4" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sales &amp; Prod" sheetId="8" r:id="rId3"/>
     <sheet name="RM &amp; DL &amp; FG" sheetId="9" r:id="rId4"/>
     <sheet name="SGA &amp; PL &amp; BS" sheetId="10" r:id="rId5"/>
+    <sheet name="Dash" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="unit">Input!$C$1:$C$1</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="190">
   <si>
     <t>HasName co</t>
   </si>
@@ -520,9 +521,6 @@
     <t xml:space="preserve">Cash balance, ending </t>
   </si>
   <si>
-    <t>Profit &amp; Loss budgeting</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
@@ -611,6 +609,46 @@
   </si>
   <si>
     <t xml:space="preserve"> Total liabilities and owners'equity </t>
+  </si>
+  <si>
+    <t>Variables selling expenses</t>
+  </si>
+  <si>
+    <t>Variable administrative expenses</t>
+  </si>
+  <si>
+    <t>- Commission</t>
+  </si>
+  <si>
+    <t>Net sales</t>
+  </si>
+  <si>
+    <t>Contribution margin</t>
+  </si>
+  <si>
+    <t>Fixed selling costs</t>
+  </si>
+  <si>
+    <t>Fixed administrative costs</t>
+  </si>
+  <si>
+    <t>Net operating margin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Profit &amp; Loss budgeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contribution P&amp;L</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -618,15 +656,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="172" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -664,11 +702,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -685,39 +725,59 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -758,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -827,20 +887,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -872,7 +941,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -883,52 +952,55 @@
     <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,8 +1010,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1258,25 +1341,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD714F5-1C7F-4136-BC45-C0D8A74B0D61}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="66.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57" customHeight="1">
+    <row r="6" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1">
+    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1336,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
@@ -1388,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -1402,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1430,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1444,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
@@ -1470,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60">
+    <row r="18" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5" customHeight="1">
+    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1502,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1525,21 +1608,21 @@
   <dimension ref="B1:I58"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="E56" sqref="E56:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="41.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1547,17 +1630,17 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75">
-      <c r="C3" s="58" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-    </row>
-    <row r="4" spans="2:8" ht="18">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>26</v>
       </c>
@@ -1601,7 +1684,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
       <c r="C6" s="28"/>
       <c r="D6" s="29"/>
@@ -1610,7 +1693,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
@@ -1633,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -1664,14 +1747,14 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="31">
         <v>0.9</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="25"/>
@@ -1679,33 +1762,33 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="32">
         <v>0.05</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="32">
         <v>0.05</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
@@ -1714,7 +1797,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
@@ -1737,7 +1820,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -1745,7 +1828,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="36" t="s">
         <v>34</v>
       </c>
@@ -1768,7 +1851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
@@ -1792,7 +1875,7 @@
       </c>
       <c r="I17" s="37"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>36</v>
       </c>
@@ -1815,7 +1898,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
@@ -1838,7 +1921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>38</v>
       </c>
@@ -1861,7 +1944,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +1990,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -1915,7 +1998,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
@@ -1928,7 +2011,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
         <v>42</v>
       </c>
@@ -1941,7 +2024,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +2037,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="19"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -1962,7 +2045,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="19"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -1970,7 +2053,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="19"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -1978,7 +2061,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="36" t="s">
         <v>44</v>
       </c>
@@ -2007,7 +2090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>45</v>
       </c>
@@ -2030,7 +2113,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
         <v>47</v>
       </c>
@@ -2076,7 +2159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
         <v>48</v>
       </c>
@@ -2099,7 +2182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>49</v>
       </c>
@@ -2122,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>47</v>
       </c>
@@ -2145,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="19"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -2153,7 +2236,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="19"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -2161,7 +2244,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>50</v>
       </c>
@@ -2184,10 +2267,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="19"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
         <v>51</v>
       </c>
@@ -2216,7 +2299,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>52</v>
       </c>
@@ -2245,12 +2328,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="19"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -2258,7 +2341,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="19"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -2266,7 +2349,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="36" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="19" t="s">
         <v>55</v>
       </c>
@@ -2318,7 +2401,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
@@ -2341,7 +2424,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="19"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -2349,7 +2432,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="19"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -2357,7 +2440,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="36" t="s">
         <v>57</v>
       </c>
@@ -2386,85 +2469,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="58">
         <v>4</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="58">
         <v>4.5</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="58">
         <v>5</v>
       </c>
-      <c r="F54" s="61">
+      <c r="F54" s="58">
         <v>5.5</v>
       </c>
-      <c r="G54" s="61">
+      <c r="G54" s="58">
         <v>6</v>
       </c>
-      <c r="H54" s="61">
+      <c r="H54" s="58">
         <v>6.5</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="58">
         <v>5</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="58">
         <f>C55*1.05</f>
         <v>5.25</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="58">
         <f t="shared" ref="E55:H55" si="3">D55*1.05</f>
         <v>5.5125000000000002</v>
       </c>
-      <c r="F55" s="61">
+      <c r="F55" s="58">
         <f t="shared" si="3"/>
         <v>5.7881250000000009</v>
       </c>
-      <c r="G55" s="61">
+      <c r="G55" s="58">
         <f t="shared" si="3"/>
         <v>6.0775312500000007</v>
       </c>
-      <c r="H55" s="61">
+      <c r="H55" s="58">
         <f t="shared" si="3"/>
         <v>6.3814078125000009</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="61">
-        <v>1</v>
-      </c>
-      <c r="D56" s="61">
-        <v>1</v>
-      </c>
-      <c r="E56" s="61">
-        <v>1</v>
-      </c>
-      <c r="F56" s="61">
-        <v>1.25</v>
-      </c>
-      <c r="G56" s="61">
-        <v>1.25</v>
-      </c>
-      <c r="H56" s="61">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="C56" s="58">
+        <v>1</v>
+      </c>
+      <c r="D56" s="58">
+        <v>1</v>
+      </c>
+      <c r="E56" s="58">
+        <v>1</v>
+      </c>
+      <c r="F56" s="58">
+        <v>1</v>
+      </c>
+      <c r="G56" s="58">
+        <v>1</v>
+      </c>
+      <c r="H56" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="49"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="49"/>
     </row>
@@ -2488,27 +2571,27 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="46.5" style="6" customWidth="1"/>
-    <col min="3" max="8" width="13.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="6" customWidth="1"/>
+    <col min="3" max="8" width="13.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15.75">
-      <c r="C3" s="58" t="str">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="59" t="str">
         <f>Input!C3</f>
         <v>6-MONTHS PLAN</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-    </row>
-    <row r="4" spans="2:8" ht="20.25">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="str">
         <f>"Sales budgeting  (in "&amp;Input!C1&amp; ")"</f>
         <v>Sales budgeting  (in 1000000)</v>
@@ -2538,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -2567,7 +2650,7 @@
         <v>3.8288446875000011</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>62</v>
       </c>
@@ -2596,7 +2679,7 @@
         <v>1.4039097187500005</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>63</v>
       </c>
@@ -2625,10 +2708,10 @@
         <v>5.2327544062500015</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
@@ -2657,7 +2740,7 @@
         <v>30.630757500000009</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
         <v>65</v>
       </c>
@@ -2686,36 +2769,36 @@
         <v>5.6156388750000019</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="42">
-        <f>SUM(C9:C10)</f>
+        <f t="shared" ref="C11:H11" si="1">SUM(C9:C10)</f>
         <v>28.4</v>
       </c>
       <c r="D11" s="42">
-        <f>SUM(D9:D10)</f>
+        <f t="shared" si="1"/>
         <v>29.820000000000004</v>
       </c>
       <c r="E11" s="42">
-        <f>SUM(E9:E10)</f>
+        <f t="shared" si="1"/>
         <v>31.311000000000007</v>
       </c>
       <c r="F11" s="42">
-        <f>SUM(F9:F10)</f>
+        <f t="shared" si="1"/>
         <v>32.876550000000009</v>
       </c>
       <c r="G11" s="42">
-        <f>SUM(G9:G10)</f>
+        <f t="shared" si="1"/>
         <v>34.520377500000009</v>
       </c>
       <c r="H11" s="42">
-        <f>SUM(H9:H10)</f>
+        <f t="shared" si="1"/>
         <v>36.24639637500001</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -2723,24 +2806,24 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" ht="18">
-      <c r="C14" s="60" t="s">
+    <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>68</v>
       </c>
@@ -2749,32 +2832,32 @@
         <v>1</v>
       </c>
       <c r="D15" s="22">
-        <f t="shared" ref="D15:H15" si="1">D4</f>
+        <f t="shared" ref="D15:H15" si="2">D4</f>
         <v>2</v>
       </c>
       <c r="E15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>70</v>
       </c>
@@ -2803,7 +2886,7 @@
         <v>32.621756737500007</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -2833,7 +2916,7 @@
         <v>1.8123198187500007</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
         <v>32</v>
       </c>
@@ -2860,7 +2943,7 @@
         <v>1.7260188750000005</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>71</v>
       </c>
@@ -2869,45 +2952,45 @@
         <v>25.56</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" ref="D20:H20" si="2">SUM(D16:D19)</f>
+        <f t="shared" ref="D20:H20" si="3">SUM(D16:D19)</f>
         <v>28.258000000000003</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.090900000000005</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.645445000000009</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.277717250000009</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.991603112500009</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="18">
-      <c r="C25" s="60" t="s">
+    <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C25" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="2:9" ht="20.25">
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+    </row>
+    <row r="26" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
         <v>72</v>
       </c>
@@ -2916,57 +2999,57 @@
         <v>1</v>
       </c>
       <c r="D26" s="22">
-        <f t="shared" ref="D26:H26" si="3">D15</f>
+        <f t="shared" ref="D26:H26" si="4">D15</f>
         <v>2</v>
       </c>
       <c r="E26" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="str">
         <f>B7</f>
         <v>Total budget sales in quantity</v>
       </c>
       <c r="C27" s="35">
-        <f t="shared" ref="C27:H27" si="4">C7</f>
+        <f t="shared" ref="C27:H27" si="5">C7</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="D27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3050000000000006</v>
       </c>
       <c r="E27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5202500000000008</v>
       </c>
       <c r="F27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7462625000000012</v>
       </c>
       <c r="G27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9835756250000012</v>
       </c>
       <c r="H27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2327544062500015</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="40" t="s">
         <v>73</v>
       </c>
@@ -2995,7 +3078,7 @@
         <v>5.2327544062500016E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>74</v>
       </c>
@@ -3004,27 +3087,27 @@
         <v>4.141</v>
       </c>
       <c r="D29" s="35">
-        <f t="shared" ref="D29:H29" si="5">SUM(D27:D28)</f>
+        <f t="shared" ref="D29:H29" si="6">SUM(D27:D28)</f>
         <v>4.3480500000000006</v>
       </c>
       <c r="E29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.565452500000001</v>
       </c>
       <c r="F29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7937251250000008</v>
       </c>
       <c r="G29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0334113812500014</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2850819503125015</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
         <v>75</v>
       </c>
@@ -3034,23 +3117,23 @@
         <v>-4.0999999999999995E-2</v>
       </c>
       <c r="E31" s="41">
-        <f t="shared" ref="E31:H31" si="6">-D28</f>
+        <f t="shared" ref="E31:H31" si="7">-D28</f>
         <v>-4.3050000000000005E-2</v>
       </c>
       <c r="F31" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.5202500000000007E-2</v>
       </c>
       <c r="G31" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.7462625000000015E-2</v>
       </c>
       <c r="H31" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.9835756250000016E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>76</v>
       </c>
@@ -3059,27 +3142,27 @@
         <v>4.141</v>
       </c>
       <c r="D32" s="42">
-        <f t="shared" ref="D32:H32" si="7">D29+D31</f>
+        <f t="shared" ref="D32:H32" si="8">D29+D31</f>
         <v>4.3070500000000003</v>
       </c>
       <c r="E32" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.522402500000001</v>
       </c>
       <c r="F32" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7485226250000006</v>
       </c>
       <c r="G32" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9859487562500018</v>
       </c>
       <c r="H32" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2352461940625012</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
@@ -3088,7 +3171,7 @@
         <v>0.73170731707317083</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>78</v>
       </c>
@@ -3118,28 +3201,28 @@
       <selection activeCell="H34" sqref="H34:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="48.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="11.75" style="6" customWidth="1"/>
+    <col min="6" max="8" width="11.6640625" style="6" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="18">
-      <c r="C3" s="60" t="s">
+    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C3" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="2:8" ht="20.25">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+    </row>
+    <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
         <v>79</v>
       </c>
@@ -3168,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
@@ -3197,7 +3280,7 @@
         <v>3.8306679468750016</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
@@ -3226,7 +3309,7 @@
         <v>5.7460019203125023</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3235,7 +3318,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
@@ -3264,7 +3347,7 @@
         <v>0.57460019203125023</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
         <v>83</v>
       </c>
@@ -3290,7 +3373,7 @@
         <v>-0.54723827812500037</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3319,7 +3402,7 @@
         <v>5.7733638342187525</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3328,7 +3411,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
         <v>85</v>
       </c>
@@ -3357,7 +3440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
@@ -3386,7 +3469,7 @@
         <v>11.546727668437505</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3395,7 +3478,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3404,7 +3487,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
@@ -3433,7 +3516,7 @@
         <v>1.4045782471875008</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3462,7 +3545,7 @@
         <v>0.7022891235937504</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3471,7 +3554,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
@@ -3500,7 +3583,7 @@
         <v>7.0228912359375048E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
         <v>83</v>
       </c>
@@ -3526,7 +3609,7 @@
         <v>-6.6884678437500053E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
@@ -3555,7 +3638,7 @@
         <v>0.70563335751562539</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3564,7 +3647,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
         <v>89</v>
       </c>
@@ -3593,7 +3676,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
@@ -3622,7 +3705,7 @@
         <v>0.49394335026093772</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3631,7 +3714,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3640,7 +3723,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
@@ -3669,7 +3752,7 @@
         <v>12.040671018698443</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3678,7 +3761,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3687,17 +3770,17 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" ht="18">
-      <c r="C30" s="60" t="s">
+    <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C30" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-    </row>
-    <row r="31" spans="2:8" ht="15.75">
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>91</v>
       </c>
@@ -3726,7 +3809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
@@ -3737,7 +3820,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>93</v>
       </c>
@@ -3766,7 +3849,7 @@
         <v>9.6325368149587547</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
@@ -3796,7 +3879,7 @@
         <v>1.2040671018698443</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
         <v>43</v>
       </c>
@@ -3823,7 +3906,7 @@
         <v>1.1467305732093758</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>94</v>
       </c>
@@ -3852,7 +3935,7 @@
         <v>11.87139174360563</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3861,7 +3944,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3870,18 +3953,18 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:9" ht="18">
+    <row r="39" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-    </row>
-    <row r="40" spans="2:9" ht="20.25">
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+    </row>
+    <row r="40" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B40" s="46" t="s">
         <v>95</v>
       </c>
@@ -3910,7 +3993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>96</v>
       </c>
@@ -3939,7 +4022,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>97</v>
       </c>
@@ -3968,7 +4051,7 @@
         <v>5.5640000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="20.25">
+    <row r="45" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B45" s="46" t="s">
         <v>98</v>
       </c>
@@ -3997,7 +4080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>99</v>
       </c>
@@ -4026,7 +4109,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="22" t="s">
         <v>100</v>
       </c>
@@ -4055,7 +4138,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>101</v>
       </c>
@@ -4084,7 +4167,7 @@
         <v>7.2699999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="40" t="s">
         <v>102</v>
       </c>
@@ -4113,12 +4196,12 @@
         <v>-1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>104</v>
       </c>
@@ -4147,7 +4230,7 @@
         <v>33.971962616822431</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="20.25">
+    <row r="58" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B58" s="46" t="s">
         <v>105</v>
       </c>
@@ -4176,12 +4259,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15.75">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>107</v>
       </c>
@@ -4210,7 +4293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>108</v>
       </c>
@@ -4239,7 +4322,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="22" t="s">
         <v>109</v>
       </c>
@@ -4268,7 +4351,7 @@
         <v>6.2143834055162994</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>110</v>
       </c>
@@ -4297,7 +4380,7 @@
         <v>10.714383405516299</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -4305,7 +4388,7 @@
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="40" t="s">
         <v>111</v>
       </c>
@@ -4334,7 +4417,7 @@
         <v>3.8288446875000014E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="38" t="s">
         <v>112</v>
       </c>
@@ -4363,7 +4446,7 @@
         <v>0.41023709982049256</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -4371,7 +4454,7 @@
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -4379,7 +4462,7 @@
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="2:8" ht="15.75">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="23" t="s">
         <v>113</v>
       </c>
@@ -4390,7 +4473,7 @@
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>107</v>
       </c>
@@ -4419,7 +4502,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>108</v>
       </c>
@@ -4448,7 +4531,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="22" t="s">
         <v>109</v>
       </c>
@@ -4477,7 +4560,7 @@
         <v>0.72915431958057919</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>114</v>
       </c>
@@ -4506,7 +4589,7 @@
         <v>2.2291543195805792</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -4514,7 +4597,7 @@
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="22" t="s">
         <v>115</v>
       </c>
@@ -4543,7 +4626,7 @@
         <v>1.4039097187500007E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="38" t="s">
         <v>112</v>
       </c>
@@ -4572,7 +4655,7 @@
         <v>3.1295314138527201E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -4580,7 +4663,7 @@
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>116</v>
       </c>
@@ -4624,22 +4707,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B4:H104"/>
+  <dimension ref="B4:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="52.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="20.25">
+    <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
         <v>117</v>
       </c>
@@ -4668,7 +4751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
@@ -4697,7 +4780,7 @@
         <v>5.2327544062500015</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>119</v>
       </c>
@@ -4726,7 +4809,7 @@
         <v>5.2327544062500016E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>120</v>
       </c>
@@ -4755,15 +4838,15 @@
         <v>5.2327544062500016E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="15.75">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
@@ -4792,7 +4875,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -4821,7 +4904,7 @@
         <v>6.3814078125000009</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -4839,18 +4922,18 @@
       </c>
       <c r="F13" s="50">
         <f>Input!F56</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G13" s="50">
         <f>Input!G56</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="H13" s="50">
         <f>Input!H56</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
@@ -4879,7 +4962,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>124</v>
       </c>
@@ -4908,7 +4991,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>125</v>
       </c>
@@ -4926,18 +5009,18 @@
       </c>
       <c r="F16" s="50">
         <f t="shared" si="1"/>
-        <v>12.544325000000002</v>
+        <v>12.294325000000002</v>
       </c>
       <c r="G16" s="50">
         <f t="shared" si="1"/>
-        <v>13.333731250000001</v>
+        <v>13.083731250000001</v>
       </c>
       <c r="H16" s="50">
         <f t="shared" si="1"/>
-        <v>14.137607812500002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>13.887607812500002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4946,7 +5029,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>126</v>
       </c>
@@ -4964,18 +5047,18 @@
       </c>
       <c r="F18" s="50">
         <f t="shared" si="2"/>
-        <v>12.544799626250002</v>
+        <v>12.294799626250002</v>
       </c>
       <c r="G18" s="50">
         <f t="shared" si="2"/>
-        <v>13.334229607562502</v>
+        <v>13.084229607562502</v>
       </c>
       <c r="H18" s="50">
         <f t="shared" si="2"/>
-        <v>14.138131087940627</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>13.888131087940627</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
         <v>127</v>
       </c>
@@ -5004,7 +5087,7 @@
         <v>-1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>128</v>
       </c>
@@ -5022,18 +5105,18 @@
       </c>
       <c r="F20" s="50">
         <f t="shared" si="4"/>
-        <v>12.543599626250002</v>
+        <v>12.293599626250002</v>
       </c>
       <c r="G20" s="50">
         <f t="shared" si="4"/>
-        <v>13.333029607562501</v>
+        <v>13.083029607562501</v>
       </c>
       <c r="H20" s="50">
         <f t="shared" si="4"/>
-        <v>14.136931087940626</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="20.25">
+        <v>13.886931087940626</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
         <v>129</v>
       </c>
@@ -5062,20 +5145,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>132</v>
       </c>
@@ -5104,7 +5187,7 @@
         <v>35.991603112500009</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>133</v>
       </c>
@@ -5133,7 +5216,7 @@
         <v>35.991603112500009</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -5142,12 +5225,12 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>135</v>
       </c>
@@ -5176,7 +5259,7 @@
         <v>12.040671018698443</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>136</v>
       </c>
@@ -5205,7 +5288,7 @@
         <v>5.5640000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>137</v>
       </c>
@@ -5234,7 +5317,7 @@
         <v>7.2699999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="26" t="s">
         <v>138</v>
       </c>
@@ -5252,18 +5335,18 @@
       </c>
       <c r="F37" s="41">
         <f t="shared" si="7"/>
-        <v>12.543599626250002</v>
+        <v>12.293599626250002</v>
       </c>
       <c r="G37" s="41">
         <f t="shared" si="7"/>
-        <v>13.333029607562501</v>
+        <v>13.083029607562501</v>
       </c>
       <c r="H37" s="41">
         <f t="shared" si="7"/>
-        <v>14.136931087940626</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>13.886931087940626</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>139</v>
       </c>
@@ -5281,18 +5364,18 @@
       </c>
       <c r="F38" s="50">
         <f t="shared" si="8"/>
-        <v>23.527753180625005</v>
+        <v>23.277753180625005</v>
       </c>
       <c r="G38" s="50">
         <f t="shared" si="8"/>
-        <v>24.86324533965626</v>
+        <v>24.61324533965626</v>
       </c>
       <c r="H38" s="50">
         <f t="shared" si="8"/>
-        <v>26.24051210663907</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+        <v>25.99051210663907</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
@@ -5301,7 +5384,7 @@
       <c r="G39" s="50"/>
       <c r="H39" s="50"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="26" t="s">
         <v>140</v>
       </c>
@@ -5312,15 +5395,15 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="26" t="s">
         <v>142</v>
       </c>
@@ -5331,7 +5414,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>143</v>
       </c>
@@ -5349,21 +5432,21 @@
       </c>
       <c r="F44" s="50">
         <f t="shared" si="9"/>
-        <v>23.527753180625005</v>
+        <v>23.277753180625005</v>
       </c>
       <c r="G44" s="50">
         <f t="shared" si="9"/>
-        <v>24.86324533965626</v>
+        <v>24.61324533965626</v>
       </c>
       <c r="H44" s="50">
         <f t="shared" si="9"/>
-        <v>26.24051210663907</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>25.99051210663907</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>144</v>
       </c>
@@ -5381,33 +5464,33 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="10"/>
-        <v>9.1176918193750041</v>
+        <v>9.3676918193750041</v>
       </c>
       <c r="G46" s="35">
         <f t="shared" si="10"/>
-        <v>9.4144719103437495</v>
+        <v>9.6644719103437495</v>
       </c>
       <c r="H46" s="35">
         <f t="shared" si="10"/>
-        <v>9.751091005860939</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>10.001091005860939</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="26" t="s">
         <v>148</v>
       </c>
@@ -5418,12 +5501,12 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>150</v>
       </c>
@@ -5441,20 +5524,20 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="11"/>
-        <v>9.1176918193750041</v>
+        <v>9.3676918193750041</v>
       </c>
       <c r="G54" s="35">
         <f t="shared" si="11"/>
-        <v>9.4144719103437495</v>
+        <v>9.6644719103437495</v>
       </c>
       <c r="H54" s="35">
         <f t="shared" si="11"/>
-        <v>9.751091005860939</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="20.25">
-      <c r="B57" s="46" t="s">
-        <v>151</v>
+        <v>10.001091005860939</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="B57" s="73" t="s">
+        <v>189</v>
       </c>
       <c r="C57" s="22">
         <f>C26</f>
@@ -5481,9 +5564,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="6">
         <f>'Sales &amp; Prod'!C11</f>
@@ -5510,639 +5593,733 @@
         <v>36.24639637500001</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="41">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="64">
+        <f>-C7</f>
+        <v>-4.0999999999999999E-4</v>
+      </c>
+      <c r="D59" s="64">
+        <f t="shared" ref="D59:H59" si="13">-D7</f>
+        <v>-4.3050000000000006E-4</v>
+      </c>
+      <c r="E59" s="64">
+        <f t="shared" si="13"/>
+        <v>-4.520250000000001E-4</v>
+      </c>
+      <c r="F59" s="64">
+        <f t="shared" si="13"/>
+        <v>-4.7462625000000016E-4</v>
+      </c>
+      <c r="G59" s="64">
+        <f t="shared" si="13"/>
+        <v>-4.9835756250000019E-4</v>
+      </c>
+      <c r="H59" s="64">
+        <f t="shared" si="13"/>
+        <v>-5.2327544062500016E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="63">
+        <f>C58-C59</f>
+        <v>28.400409999999997</v>
+      </c>
+      <c r="D60" s="63">
+        <f t="shared" ref="D60:H60" si="14">D58-D59</f>
+        <v>29.820430500000004</v>
+      </c>
+      <c r="E60" s="63">
+        <f t="shared" si="14"/>
+        <v>31.311452025000008</v>
+      </c>
+      <c r="F60" s="63">
+        <f t="shared" si="14"/>
+        <v>32.877024626250012</v>
+      </c>
+      <c r="G60" s="63">
+        <f t="shared" si="14"/>
+        <v>34.520875857562508</v>
+      </c>
+      <c r="H60" s="63">
+        <f t="shared" si="14"/>
+        <v>36.246919650440638</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="63">
         <f>C34+C35+C36</f>
         <v>10.485975</v>
       </c>
-      <c r="D59" s="41">
-        <f t="shared" ref="D59:H59" si="13">D34+D35+D36</f>
+      <c r="D61" s="63">
+        <f t="shared" ref="D61:H61" si="15">D34+D35+D36</f>
         <v>9.9561917499999986</v>
       </c>
-      <c r="E59" s="41">
-        <f t="shared" si="13"/>
+      <c r="E61" s="63">
+        <f t="shared" si="15"/>
         <v>10.460424337500005</v>
       </c>
-      <c r="F59" s="41">
-        <f t="shared" si="13"/>
+      <c r="F61" s="63">
+        <f t="shared" si="15"/>
         <v>10.984153554375004</v>
       </c>
-      <c r="G59" s="41">
-        <f t="shared" si="13"/>
+      <c r="G61" s="63">
+        <f t="shared" si="15"/>
         <v>11.530215732093758</v>
       </c>
-      <c r="H59" s="41">
-        <f t="shared" si="13"/>
+      <c r="H61" s="63">
+        <f t="shared" si="15"/>
         <v>12.103581018698444</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="6" t="s">
+    <row r="62" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="68">
+        <f>C11</f>
+        <v>4</v>
+      </c>
+      <c r="D62" s="68">
+        <f t="shared" ref="D62:H62" si="16">D11</f>
+        <v>4.5</v>
+      </c>
+      <c r="E62" s="68">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="F62" s="68">
+        <f t="shared" si="16"/>
+        <v>5.5</v>
+      </c>
+      <c r="G62" s="68">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="H62" s="68">
+        <f t="shared" si="16"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="68">
+        <f>C12</f>
+        <v>5</v>
+      </c>
+      <c r="D63" s="68">
+        <f t="shared" ref="D63:H63" si="17">D12</f>
+        <v>5.25</v>
+      </c>
+      <c r="E63" s="68">
+        <f t="shared" si="17"/>
+        <v>5.5125000000000002</v>
+      </c>
+      <c r="F63" s="68">
+        <f t="shared" si="17"/>
+        <v>5.7881250000000009</v>
+      </c>
+      <c r="G63" s="68">
+        <f t="shared" si="17"/>
+        <v>6.0775312500000007</v>
+      </c>
+      <c r="H63" s="68">
+        <f t="shared" si="17"/>
+        <v>6.3814078125000009</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="69">
+        <f>C60-SUM(C61:C63)</f>
+        <v>8.9144349999999974</v>
+      </c>
+      <c r="D64" s="69">
+        <f t="shared" ref="D64:H64" si="18">D60-SUM(D61:D63)</f>
+        <v>10.114238750000005</v>
+      </c>
+      <c r="E64" s="69">
+        <f t="shared" si="18"/>
+        <v>10.338527687500005</v>
+      </c>
+      <c r="F64" s="69">
+        <f t="shared" si="18"/>
+        <v>10.604746071875006</v>
+      </c>
+      <c r="G64" s="69">
+        <f t="shared" si="18"/>
+        <v>10.91312887546875</v>
+      </c>
+      <c r="H64" s="69">
+        <f t="shared" si="18"/>
+        <v>11.261930819242195</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="35">
+        <f>C60-C61</f>
+        <v>17.914434999999997</v>
+      </c>
+      <c r="D65" s="35">
+        <f t="shared" ref="D65:H65" si="19">D60-D61</f>
+        <v>19.864238750000005</v>
+      </c>
+      <c r="E65" s="35">
+        <f t="shared" si="19"/>
+        <v>20.851027687500004</v>
+      </c>
+      <c r="F65" s="35">
+        <f t="shared" si="19"/>
+        <v>21.892871071875007</v>
+      </c>
+      <c r="G65" s="35">
+        <f t="shared" si="19"/>
+        <v>22.99066012546875</v>
+      </c>
+      <c r="H65" s="35">
+        <f t="shared" si="19"/>
+        <v>24.143338631742196</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="72">
+        <f>C15</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D66" s="72">
+        <f t="shared" ref="D66:H66" si="20">D15</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E66" s="72">
+        <f t="shared" si="20"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F66" s="72">
+        <f t="shared" si="20"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G66" s="72">
+        <f t="shared" si="20"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H66" s="72">
+        <f t="shared" si="20"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="71">
+        <f>C13+C14</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D67" s="71">
+        <f t="shared" ref="D67:H67" si="21">D13+D14</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E67" s="71">
+        <f t="shared" si="21"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F67" s="71">
+        <f t="shared" si="21"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="G67" s="71">
+        <f t="shared" si="21"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="H67" s="71">
+        <f t="shared" si="21"/>
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="71">
+        <f>C64-SUM(C66:C67)</f>
+        <v>7.9082349999999977</v>
+      </c>
+      <c r="D68" s="71">
+        <f t="shared" ref="D68:H68" si="22">D64-SUM(D66:D67)</f>
+        <v>9.1080387500000057</v>
+      </c>
+      <c r="E68" s="71">
+        <f t="shared" si="22"/>
+        <v>9.3323276875000047</v>
+      </c>
+      <c r="F68" s="71">
+        <f t="shared" si="22"/>
+        <v>9.5985460718750062</v>
+      </c>
+      <c r="G68" s="71">
+        <f t="shared" si="22"/>
+        <v>9.9069288754687506</v>
+      </c>
+      <c r="H68" s="71">
+        <f t="shared" si="22"/>
+        <v>10.255730819242196</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="35">
-        <f>C58-C59</f>
-        <v>17.914024999999999</v>
-      </c>
-      <c r="D60" s="35">
-        <f t="shared" ref="D60:H60" si="14">D58-D59</f>
-        <v>19.863808250000005</v>
-      </c>
-      <c r="E60" s="35">
-        <f t="shared" si="14"/>
-        <v>20.850575662500002</v>
-      </c>
-      <c r="F60" s="35">
-        <f t="shared" si="14"/>
-        <v>21.892396445625003</v>
-      </c>
-      <c r="G60" s="35">
-        <f t="shared" si="14"/>
-        <v>22.990161767906251</v>
-      </c>
-      <c r="H60" s="35">
-        <f t="shared" si="14"/>
-        <v>24.142815356301568</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="52">
+      <c r="C70" s="52">
         <f>C16</f>
         <v>10.006200000000002</v>
       </c>
-      <c r="D62" s="52">
-        <f t="shared" ref="D62:H62" si="15">D16</f>
+      <c r="D70" s="52">
+        <f>D16</f>
         <v>10.756200000000002</v>
       </c>
-      <c r="E62" s="52">
-        <f t="shared" si="15"/>
+      <c r="E70" s="52">
+        <f>E16</f>
         <v>11.518700000000001</v>
       </c>
-      <c r="F62" s="52">
-        <f t="shared" si="15"/>
-        <v>12.544325000000002</v>
-      </c>
-      <c r="G62" s="52">
-        <f t="shared" si="15"/>
-        <v>13.333731250000001</v>
-      </c>
-      <c r="H62" s="52">
-        <f t="shared" si="15"/>
-        <v>14.137607812500002</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="38" t="s">
+      <c r="F70" s="52">
+        <f>F16</f>
+        <v>12.294325000000002</v>
+      </c>
+      <c r="G70" s="52">
+        <f>G16</f>
+        <v>13.083731250000001</v>
+      </c>
+      <c r="H70" s="52">
+        <f>H16</f>
+        <v>13.887607812500002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="35">
+        <f>C65-C70</f>
+        <v>7.9082349999999959</v>
+      </c>
+      <c r="D71" s="35">
+        <f>D65-D70</f>
+        <v>9.108038750000004</v>
+      </c>
+      <c r="E71" s="35">
+        <f>E65-E70</f>
+        <v>9.332327687500003</v>
+      </c>
+      <c r="F71" s="35">
+        <f>F65-F70</f>
+        <v>9.5985460718750044</v>
+      </c>
+      <c r="G71" s="35">
+        <f>G65-G70</f>
+        <v>9.9069288754687488</v>
+      </c>
+      <c r="H71" s="35">
+        <f>H65-H70</f>
+        <v>10.255730819242194</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="35">
-        <f>C60-C62</f>
-        <v>7.9078249999999972</v>
-      </c>
-      <c r="D63" s="35">
-        <f t="shared" ref="D63:H63" si="16">D60-D62</f>
-        <v>9.1076082500000037</v>
-      </c>
-      <c r="E63" s="35">
-        <f t="shared" si="16"/>
-        <v>9.3318756625000017</v>
-      </c>
-      <c r="F63" s="35">
-        <f t="shared" si="16"/>
-        <v>9.3480714456250009</v>
-      </c>
-      <c r="G63" s="35">
-        <f t="shared" si="16"/>
-        <v>9.6564305179062497</v>
-      </c>
-      <c r="H63" s="35">
-        <f t="shared" si="16"/>
-        <v>10.005207543801566</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="40" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="6" t="s">
+      <c r="C74" s="35">
+        <f>C71-C73</f>
+        <v>7.9082349999999959</v>
+      </c>
+      <c r="D74" s="35">
+        <f t="shared" ref="D74:H74" si="23">D71-D73</f>
+        <v>9.108038750000004</v>
+      </c>
+      <c r="E74" s="35">
+        <f t="shared" si="23"/>
+        <v>9.332327687500003</v>
+      </c>
+      <c r="F74" s="35">
+        <f t="shared" si="23"/>
+        <v>9.5985460718750044</v>
+      </c>
+      <c r="G74" s="35">
+        <f t="shared" si="23"/>
+        <v>9.9069288754687488</v>
+      </c>
+      <c r="H74" s="35">
+        <f t="shared" si="23"/>
+        <v>10.255730819242194</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="35">
-        <f>C63-C65</f>
-        <v>7.9078249999999972</v>
-      </c>
-      <c r="D66" s="35">
-        <f t="shared" ref="D66:H66" si="17">D63-D65</f>
-        <v>9.1076082500000037</v>
-      </c>
-      <c r="E66" s="35">
-        <f t="shared" si="17"/>
-        <v>9.3318756625000017</v>
-      </c>
-      <c r="F66" s="35">
-        <f t="shared" si="17"/>
-        <v>9.3480714456250009</v>
-      </c>
-      <c r="G66" s="35">
-        <f t="shared" si="17"/>
-        <v>9.6564305179062497</v>
-      </c>
-      <c r="H66" s="35">
-        <f t="shared" si="17"/>
-        <v>10.005207543801566</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="40" t="s">
+      <c r="C76" s="41">
+        <f>-C74*0.25</f>
+        <v>-1.977058749999999</v>
+      </c>
+      <c r="D76" s="41">
+        <f t="shared" ref="D76:H76" si="24">-D74*0.25</f>
+        <v>-2.277009687500001</v>
+      </c>
+      <c r="E76" s="41">
+        <f t="shared" si="24"/>
+        <v>-2.3330819218750007</v>
+      </c>
+      <c r="F76" s="41">
+        <f t="shared" si="24"/>
+        <v>-2.3996365179687511</v>
+      </c>
+      <c r="G76" s="41">
+        <f t="shared" si="24"/>
+        <v>-2.4767322188671872</v>
+      </c>
+      <c r="H76" s="41">
+        <f t="shared" si="24"/>
+        <v>-2.5639327048105485</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="41">
-        <f>-C66*0.25</f>
-        <v>-1.9769562499999993</v>
-      </c>
-      <c r="D68" s="41">
-        <f t="shared" ref="D68:H68" si="18">-D66*0.25</f>
-        <v>-2.2769020625000009</v>
-      </c>
-      <c r="E68" s="41">
-        <f t="shared" si="18"/>
-        <v>-2.3329689156250004</v>
-      </c>
-      <c r="F68" s="41">
-        <f t="shared" si="18"/>
-        <v>-2.3370178614062502</v>
-      </c>
-      <c r="G68" s="41">
-        <f t="shared" si="18"/>
-        <v>-2.4141076294765624</v>
-      </c>
-      <c r="H68" s="41">
-        <f t="shared" si="18"/>
-        <v>-2.5013018859503915</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="6" t="s">
+      <c r="C77" s="35">
+        <f>SUM(C74:C76)</f>
+        <v>5.9311762499999965</v>
+      </c>
+      <c r="D77" s="35">
+        <f t="shared" ref="D77:H77" si="25">SUM(D74:D76)</f>
+        <v>6.8310290625000025</v>
+      </c>
+      <c r="E77" s="35">
+        <f t="shared" si="25"/>
+        <v>6.9992457656250018</v>
+      </c>
+      <c r="F77" s="35">
+        <f t="shared" si="25"/>
+        <v>7.1989095539062529</v>
+      </c>
+      <c r="G77" s="35">
+        <f t="shared" si="25"/>
+        <v>7.4301966566015611</v>
+      </c>
+      <c r="H77" s="35">
+        <f t="shared" si="25"/>
+        <v>7.691798114431645</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="B81" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="35">
-        <f>SUM(C66:C68)</f>
-        <v>5.9308687499999984</v>
-      </c>
-      <c r="D69" s="35">
-        <f t="shared" ref="D69:H69" si="19">SUM(D66:D68)</f>
-        <v>6.8307061875000024</v>
-      </c>
-      <c r="E69" s="35">
-        <f t="shared" si="19"/>
-        <v>6.9989067468750008</v>
-      </c>
-      <c r="F69" s="35">
-        <f t="shared" si="19"/>
-        <v>7.0110535842187502</v>
-      </c>
-      <c r="G69" s="35">
-        <f t="shared" si="19"/>
-        <v>7.2423228884296869</v>
-      </c>
-      <c r="H69" s="35">
-        <f t="shared" si="19"/>
-        <v>7.503905657851174</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="20.25">
-      <c r="B73" s="46" t="s">
+      <c r="C81" s="22">
+        <f>C57</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="22">
+        <f>D57</f>
+        <v>2</v>
+      </c>
+      <c r="E81" s="22">
+        <f>E57</f>
+        <v>3</v>
+      </c>
+      <c r="F81" s="22">
+        <f>F57</f>
+        <v>4</v>
+      </c>
+      <c r="G81" s="22">
+        <f>G57</f>
+        <v>5</v>
+      </c>
+      <c r="H81" s="22">
+        <f>H57</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="22">
-        <f>C57</f>
-        <v>1</v>
-      </c>
-      <c r="D73" s="22">
-        <f t="shared" ref="D73:H73" si="20">D57</f>
-        <v>2</v>
-      </c>
-      <c r="E73" s="22">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="F73" s="22">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="G73" s="22">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="H73" s="22">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="15.75">
-      <c r="B74" s="56" t="s">
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="19" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="35">
+      <c r="C83" s="35">
         <f>C54</f>
         <v>5.0686149999999977</v>
       </c>
-      <c r="D75" s="35">
-        <f t="shared" ref="D75:H75" si="21">D54</f>
+      <c r="D83" s="35">
+        <f>D54</f>
         <v>7.5463777500000049</v>
       </c>
-      <c r="E75" s="35">
-        <f t="shared" si="21"/>
+      <c r="E83" s="35">
+        <f>E54</f>
         <v>9.1125236375000007</v>
       </c>
-      <c r="F75" s="35">
-        <f t="shared" si="21"/>
-        <v>9.1176918193750041</v>
-      </c>
-      <c r="G75" s="35">
-        <f t="shared" si="21"/>
-        <v>9.4144719103437495</v>
-      </c>
-      <c r="H75" s="35">
-        <f t="shared" si="21"/>
-        <v>9.751091005860939</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="35">
+      <c r="F83" s="35">
+        <f>F54</f>
+        <v>9.3676918193750041</v>
+      </c>
+      <c r="G83" s="35">
+        <f>G54</f>
+        <v>9.6644719103437495</v>
+      </c>
+      <c r="H83" s="35">
+        <f>H54</f>
+        <v>10.001091005860939</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="35">
         <f>'Sales &amp; Prod'!D18+'Sales &amp; Prod'!D19</f>
         <v>1.42</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D84" s="35">
         <f>'Sales &amp; Prod'!E18+'Sales &amp; Prod'!E19</f>
         <v>2.9110000000000005</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E84" s="35">
         <f>'Sales &amp; Prod'!F18+'Sales &amp; Prod'!F19</f>
         <v>3.0565500000000005</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F84" s="35">
         <f>'Sales &amp; Prod'!G18+'Sales &amp; Prod'!G19</f>
         <v>3.2093775000000009</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G84" s="35">
         <f>'Sales &amp; Prod'!H18+'Sales &amp; Prod'!H19</f>
         <v>3.3698463750000007</v>
       </c>
-      <c r="H76" s="35">
+      <c r="H84" s="35">
         <f>'Sales &amp; Prod'!I18+'Sales &amp; Prod'!I19</f>
         <v>3.538338693750001</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="35">
         <f>'RM &amp; DL &amp; FG'!C19</f>
         <v>5.5550000000000016E-2</v>
       </c>
-      <c r="D77" s="35">
+      <c r="D85" s="35">
         <f>'RM &amp; DL &amp; FG'!D19</f>
         <v>5.7777500000000016E-2</v>
       </c>
-      <c r="E77" s="35">
+      <c r="E85" s="35">
         <f>'RM &amp; DL &amp; FG'!E19</f>
         <v>6.0666375000000029E-2</v>
       </c>
-      <c r="F77" s="35">
+      <c r="F85" s="35">
         <f>'RM &amp; DL &amp; FG'!F19</f>
         <v>6.3699693750000022E-2</v>
       </c>
-      <c r="G77" s="35">
+      <c r="G85" s="35">
         <f>'RM &amp; DL &amp; FG'!G19</f>
         <v>6.6884678437500053E-2</v>
       </c>
-      <c r="H77" s="35">
+      <c r="H85" s="35">
         <f>'RM &amp; DL &amp; FG'!H19</f>
         <v>7.0228912359375048E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="41">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="41">
         <f>'RM &amp; DL &amp; FG'!C78</f>
         <v>0.35073583489681054</v>
       </c>
-      <c r="D78" s="41">
+      <c r="D86" s="41">
         <f>'RM &amp; DL &amp; FG'!D78</f>
         <v>0.36827262664165111</v>
       </c>
-      <c r="E78" s="41">
+      <c r="E86" s="41">
         <f>'RM &amp; DL &amp; FG'!E78</f>
         <v>0.38668625797373368</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F86" s="41">
         <f>'RM &amp; DL &amp; FG'!F78</f>
         <v>0.40048291515557355</v>
       </c>
-      <c r="G78" s="41">
+      <c r="G86" s="41">
         <f>'RM &amp; DL &amp; FG'!G78</f>
         <v>0.42050706091335222</v>
       </c>
-      <c r="H78" s="41">
+      <c r="H86" s="41">
         <f>'RM &amp; DL &amp; FG'!H78</f>
         <v>0.44153241395901976</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="19" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="35">
+        <f>SUM(C83:C86)</f>
+        <v>6.8949008348968084</v>
+      </c>
+      <c r="D87" s="35">
+        <f t="shared" ref="D87:H87" si="26">SUM(D83:D86)</f>
+        <v>10.883427876641658</v>
+      </c>
+      <c r="E87" s="35">
+        <f t="shared" si="26"/>
+        <v>12.616426270473736</v>
+      </c>
+      <c r="F87" s="35">
+        <f t="shared" si="26"/>
+        <v>13.041251928280577</v>
+      </c>
+      <c r="G87" s="35">
+        <f t="shared" si="26"/>
+        <v>13.521710024694602</v>
+      </c>
+      <c r="H87" s="35">
+        <f t="shared" si="26"/>
+        <v>14.051191025929336</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="35">
-        <f>SUM(C75:C78)</f>
-        <v>6.8949008348968084</v>
-      </c>
-      <c r="D79" s="35">
-        <f t="shared" ref="D79:H79" si="22">SUM(D75:D78)</f>
-        <v>10.883427876641658</v>
-      </c>
-      <c r="E79" s="35">
-        <f t="shared" si="22"/>
-        <v>12.616426270473736</v>
-      </c>
-      <c r="F79" s="35">
-        <f t="shared" si="22"/>
-        <v>12.791251928280577</v>
-      </c>
-      <c r="G79" s="35">
-        <f t="shared" si="22"/>
-        <v>13.271710024694602</v>
-      </c>
-      <c r="H79" s="35">
-        <f t="shared" si="22"/>
-        <v>13.801191025929336</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="19"/>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="19" t="s">
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="36" t="s">
+      <c r="C90" s="52">
+        <f>Input!C56</f>
+        <v>1</v>
+      </c>
+      <c r="D90" s="52">
+        <f>Input!D56</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="52">
+        <f>Input!E56</f>
+        <v>1</v>
+      </c>
+      <c r="F90" s="52">
+        <f>Input!F56</f>
+        <v>1</v>
+      </c>
+      <c r="G90" s="52">
+        <f>Input!G56</f>
+        <v>1</v>
+      </c>
+      <c r="H90" s="52">
+        <f>Input!H56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="52">
-        <f>Input!C56</f>
-        <v>1</v>
-      </c>
-      <c r="D82" s="52">
-        <f>Input!D56</f>
-        <v>1</v>
-      </c>
-      <c r="E82" s="52">
-        <f>Input!E56</f>
-        <v>1</v>
-      </c>
-      <c r="F82" s="52">
-        <f>Input!F56</f>
-        <v>1.25</v>
-      </c>
-      <c r="G82" s="52">
-        <f>Input!G56</f>
-        <v>1.25</v>
-      </c>
-      <c r="H82" s="52">
-        <f>Input!H56</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="6" t="s">
+      <c r="C91" s="50">
+        <f t="shared" ref="C91:H91" si="27">SUM(C89:C90)</f>
+        <v>1</v>
+      </c>
+      <c r="D91" s="50">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="50">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="50">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="G91" s="50">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="50">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="50">
-        <f>SUM(C81:C82)</f>
-        <v>1</v>
-      </c>
-      <c r="D83" s="50">
-        <f>SUM(D81:D82)</f>
-        <v>1</v>
-      </c>
-      <c r="E83" s="50">
-        <f>SUM(E81:E82)</f>
-        <v>1</v>
-      </c>
-      <c r="F83" s="50">
-        <f>SUM(F81:F82)</f>
-        <v>1.25</v>
-      </c>
-      <c r="G83" s="50">
-        <f>SUM(G81:G82)</f>
-        <v>1.25</v>
-      </c>
-      <c r="H83" s="50">
-        <f>SUM(H81:H82)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="3">
-        <f>C79+C83</f>
+      <c r="C93" s="3">
+        <f>C87+C91</f>
         <v>7.8949008348968084</v>
       </c>
-      <c r="D85" s="3">
-        <f t="shared" ref="D85:H85" si="23">D79+D83</f>
+      <c r="D93" s="3">
+        <f t="shared" ref="D93:H93" si="28">D87+D91</f>
         <v>11.883427876641658</v>
       </c>
-      <c r="E85" s="3">
-        <f t="shared" si="23"/>
+      <c r="E93" s="3">
+        <f t="shared" si="28"/>
         <v>13.616426270473736</v>
       </c>
-      <c r="F85" s="3">
-        <f t="shared" si="23"/>
+      <c r="F93" s="3">
+        <f t="shared" si="28"/>
         <v>14.041251928280577</v>
       </c>
-      <c r="G85" s="3">
-        <f t="shared" si="23"/>
+      <c r="G93" s="3">
+        <f t="shared" si="28"/>
         <v>14.521710024694602</v>
       </c>
-      <c r="H85" s="3">
-        <f t="shared" si="23"/>
+      <c r="H93" s="3">
+        <f t="shared" si="28"/>
         <v>15.051191025929336</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="19"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="2:8" ht="15.75">
-      <c r="B87" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="3">
-        <f>'RM &amp; DL &amp; FG'!D34+'RM &amp; DL &amp; FG'!D35</f>
-        <v>1.0426735</v>
-      </c>
-      <c r="D88" s="3">
-        <f>'RM &amp; DL &amp; FG'!E34+'RM &amp; DL &amp; FG'!E35</f>
-        <v>2.0323686749999998</v>
-      </c>
-      <c r="E88" s="3">
-        <f>'RM &amp; DL &amp; FG'!F34+'RM &amp; DL &amp; FG'!F35</f>
-        <v>2.0298136087500005</v>
-      </c>
-      <c r="F88" s="3">
-        <f>'RM &amp; DL &amp; FG'!G34+'RM &amp; DL &amp; FG'!G35</f>
-        <v>2.1322427891875009</v>
-      </c>
-      <c r="G88" s="3">
-        <f>'RM &amp; DL &amp; FG'!H34+'RM &amp; DL &amp; FG'!H35</f>
-        <v>2.2388549286468762</v>
-      </c>
-      <c r="H88" s="3">
-        <f>'RM &amp; DL &amp; FG'!I34+'RM &amp; DL &amp; FG'!I35</f>
-        <v>2.3507976750792201</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C90" s="3">
-        <f>SUM(C88:C89)</f>
-        <v>1.0426735</v>
-      </c>
-      <c r="D90" s="3">
-        <f t="shared" ref="D90:H90" si="24">SUM(D88:D89)</f>
-        <v>2.0323686749999998</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="24"/>
-        <v>2.0298136087500005</v>
-      </c>
-      <c r="F90" s="3">
-        <f t="shared" si="24"/>
-        <v>2.1322427891875009</v>
-      </c>
-      <c r="G90" s="3">
-        <f t="shared" si="24"/>
-        <v>2.2388549286468762</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="24"/>
-        <v>2.3507976750792201</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="19"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="3">
-        <f>C92</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" ref="D93:H93" si="25">D92</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6151,151 +6328,137 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="1">
-        <f>C85-C90-C96</f>
-        <v>0.92135858489680977</v>
-      </c>
-      <c r="D95" s="1">
-        <f>D85-D90-D96</f>
-        <v>3.020353014141655</v>
-      </c>
-      <c r="E95" s="1">
-        <f t="shared" ref="E95:H95" si="26">E85-E90-E96</f>
-        <v>4.5877059148487351</v>
-      </c>
-      <c r="F95" s="1">
-        <f t="shared" si="26"/>
-        <v>4.8979555548743257</v>
-      </c>
-      <c r="G95" s="1">
-        <f t="shared" si="26"/>
-        <v>5.040532207618039</v>
-      </c>
-      <c r="H95" s="1">
-        <f t="shared" si="26"/>
-        <v>5.196487692998943</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" s="26">
-        <f>C69</f>
-        <v>5.9308687499999984</v>
-      </c>
-      <c r="D96" s="26">
-        <f t="shared" ref="D96:H96" si="27">D69</f>
-        <v>6.8307061875000024</v>
-      </c>
-      <c r="E96" s="26">
-        <f t="shared" si="27"/>
-        <v>6.9989067468750008</v>
-      </c>
-      <c r="F96" s="26">
-        <f t="shared" si="27"/>
-        <v>7.0110535842187502</v>
-      </c>
-      <c r="G96" s="26">
-        <f t="shared" si="27"/>
-        <v>7.2423228884296869</v>
-      </c>
-      <c r="H96" s="26">
-        <f t="shared" si="27"/>
-        <v>7.503905657851174</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="1">
-        <f>SUM(C95:C96)</f>
-        <v>6.8522273348968081</v>
-      </c>
-      <c r="D97" s="1">
-        <f t="shared" ref="D97:H97" si="28">SUM(D95:D96)</f>
-        <v>9.8510592016416574</v>
-      </c>
-      <c r="E97" s="1">
-        <f t="shared" si="28"/>
-        <v>11.586612661723736</v>
-      </c>
-      <c r="F97" s="1">
-        <f t="shared" si="28"/>
-        <v>11.909009139093076</v>
-      </c>
-      <c r="G97" s="1">
-        <f t="shared" si="28"/>
-        <v>12.282855096047726</v>
-      </c>
-      <c r="H97" s="1">
-        <f t="shared" si="28"/>
-        <v>12.700393350850117</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="19"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C99" s="3">
-        <f>C97+C93+C90</f>
-        <v>7.8949008348968084</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" ref="D99:H99" si="29">D97+D93+D90</f>
-        <v>11.883427876641658</v>
-      </c>
-      <c r="E99" s="3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="3">
+        <f>'RM &amp; DL &amp; FG'!D34+'RM &amp; DL &amp; FG'!D35</f>
+        <v>1.0426735</v>
+      </c>
+      <c r="D96" s="3">
+        <f>'RM &amp; DL &amp; FG'!E34+'RM &amp; DL &amp; FG'!E35</f>
+        <v>2.0323686749999998</v>
+      </c>
+      <c r="E96" s="3">
+        <f>'RM &amp; DL &amp; FG'!F34+'RM &amp; DL &amp; FG'!F35</f>
+        <v>2.0298136087500005</v>
+      </c>
+      <c r="F96" s="3">
+        <f>'RM &amp; DL &amp; FG'!G34+'RM &amp; DL &amp; FG'!G35</f>
+        <v>2.1322427891875009</v>
+      </c>
+      <c r="G96" s="3">
+        <f>'RM &amp; DL &amp; FG'!H34+'RM &amp; DL &amp; FG'!H35</f>
+        <v>2.2388549286468762</v>
+      </c>
+      <c r="H96" s="3">
+        <f>'RM &amp; DL &amp; FG'!I34+'RM &amp; DL &amp; FG'!I35</f>
+        <v>2.3507976750792201</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="3">
+        <f>SUM(C96:C97)</f>
+        <v>1.0426735</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" ref="D98:H98" si="29">SUM(D96:D97)</f>
+        <v>2.0323686749999998</v>
+      </c>
+      <c r="E98" s="3">
         <f t="shared" si="29"/>
-        <v>13.616426270473736</v>
-      </c>
-      <c r="F99" s="3">
+        <v>2.0298136087500005</v>
+      </c>
+      <c r="F98" s="3">
         <f t="shared" si="29"/>
-        <v>14.041251928280577</v>
-      </c>
-      <c r="G99" s="3">
+        <v>2.1322427891875009</v>
+      </c>
+      <c r="G98" s="3">
         <f t="shared" si="29"/>
-        <v>14.521710024694602</v>
-      </c>
-      <c r="H99" s="3">
+        <v>2.2388549286468762</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="29"/>
-        <v>15.051191025929338</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="1"/>
+        <v>2.3507976750792201</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="19"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="3">
+        <f>C100</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" ref="D101:H101" si="30">D100</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="19"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -6303,25 +6466,194 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="19"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="1">
+        <f>C93-C98-C104</f>
+        <v>0.92105108489681164</v>
+      </c>
+      <c r="D103" s="1">
+        <f>D93-D98-D104</f>
+        <v>3.0200301391416549</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" ref="E103:H103" si="31">E93-E98-E104</f>
+        <v>4.5873668960987342</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="31"/>
+        <v>4.710099585186823</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="31"/>
+        <v>4.8526584394461647</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="31"/>
+        <v>5.008595236418472</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="26">
+        <f>C77</f>
+        <v>5.9311762499999965</v>
+      </c>
+      <c r="D104" s="26">
+        <f t="shared" ref="D104:H104" si="32">D77</f>
+        <v>6.8310290625000025</v>
+      </c>
+      <c r="E104" s="26">
+        <f t="shared" si="32"/>
+        <v>6.9992457656250018</v>
+      </c>
+      <c r="F104" s="26">
+        <f t="shared" si="32"/>
+        <v>7.1989095539062529</v>
+      </c>
+      <c r="G104" s="26">
+        <f t="shared" si="32"/>
+        <v>7.4301966566015611</v>
+      </c>
+      <c r="H104" s="26">
+        <f t="shared" si="32"/>
+        <v>7.691798114431645</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="1">
+        <f>SUM(C103:C104)</f>
+        <v>6.8522273348968081</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" ref="D105:H105" si="33">SUM(D103:D104)</f>
+        <v>9.8510592016416574</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="33"/>
+        <v>11.586612661723736</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="33"/>
+        <v>11.909009139093076</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="33"/>
+        <v>12.282855096047726</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="33"/>
+        <v>12.700393350850117</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="19"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="3">
+        <f>C105+C101+C98</f>
+        <v>7.8949008348968084</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" ref="D107:H107" si="34">D105+D101+D98</f>
+        <v>11.883427876641658</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="34"/>
+        <v>13.616426270473736</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="34"/>
+        <v>14.041251928280577</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="34"/>
+        <v>14.521710024694602</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="34"/>
+        <v>15.051191025929338</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="19"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D3EAE0-C113-6145-B183-0FCD62427E4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HasNameCo Master-Plan.xlsx
+++ b/HasNameCo Master-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C6371-F7DB-E54E-AC16-55F0723E84D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C834A-1168-CF40-B173-191F5CB9A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54420" yWindow="-7600" windowWidth="25580" windowHeight="28800" activeTab="4" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="54420" yWindow="-7600" windowWidth="25580" windowHeight="28800" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="6" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="211">
   <si>
     <t>HasName co</t>
   </si>
@@ -650,6 +650,117 @@
       <t>Contribution P&amp;L</t>
     </r>
   </si>
+  <si>
+    <t>Cost-Volume-Profit analysis</t>
+  </si>
+  <si>
+    <t>Per unit contribution margin</t>
+  </si>
+  <si>
+    <t>Contribution margin A</t>
+  </si>
+  <si>
+    <t>- Costs of goods sold</t>
+  </si>
+  <si>
+    <t>- Variables S&amp;A expenses</t>
+  </si>
+  <si>
+    <t>Sales B</t>
+  </si>
+  <si>
+    <t>Net Sales A</t>
+  </si>
+  <si>
+    <t>Contribution margin B</t>
+  </si>
+  <si>
+    <t>Total fixed costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed cost @ A </t>
+  </si>
+  <si>
+    <t>Fixed cost @ B</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Break-even quantity B (in million)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed Cost / (Unit CM)</t>
+    </r>
+  </si>
+  <si>
+    <t>Contribution ratio @ sales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Break-even quantity A (in million)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">          Fixed Cost / (Unit CM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Break-even euro A (in million)
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed Cost / (Unit CM ratio)</t>
+    </r>
+  </si>
+  <si>
+    <t>Margin of safety A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Break-even euro B (in million)
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed Cost / (Unit CM ratio)</t>
+    </r>
+  </si>
+  <si>
+    <t>Margin of safety B</t>
+  </si>
+  <si>
+    <t>Leverage</t>
+  </si>
+  <si>
+    <t>Degree of Operating leverage</t>
+  </si>
+  <si>
+    <t>Break-even analysis</t>
+  </si>
 </sst>
 </file>
 
@@ -664,7 +775,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -763,6 +874,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -897,11 +1014,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1012,22 +1130,43 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1607,7 +1746,7 @@
   </sheetPr>
   <dimension ref="B1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E56" sqref="E56:H56"/>
     </sheetView>
   </sheetViews>
@@ -3198,7 +3337,7 @@
   <dimension ref="B3:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:I35"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3377,65 +3516,65 @@
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f>SUM(C6:C9)</f>
         <v>4.9995000000000003</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <f t="shared" ref="D10:H10" si="1">SUM(D6:D9)</f>
         <v>4.7454749999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>4.9872487500000027</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>5.2366111875000012</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>5.4984417468750033</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>5.7733638342187525</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="45">
         <f>Input!C21</f>
         <v>2</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="45">
         <f>Input!D21</f>
         <v>2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="45">
         <f>Input!E21</f>
         <v>2</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="45">
         <f>Input!F21</f>
         <v>2</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="45">
         <f>Input!G21</f>
         <v>2</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="45">
         <f>Input!H21</f>
         <v>2</v>
       </c>
@@ -3444,39 +3583,39 @@
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f>C12*C10</f>
         <v>9.9990000000000006</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f t="shared" ref="D13:H13" si="2">D12*D10</f>
         <v>9.4909499999999998</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>9.9744975000000053</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <f t="shared" si="2"/>
         <v>10.473222375000002</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <f t="shared" si="2"/>
         <v>10.996883493750007</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>11.546727668437505</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -3727,27 +3866,27 @@
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <f>C24+C13</f>
         <v>10.426735000000001</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <f t="shared" ref="D27:H27" si="6">D24+D13</f>
         <v>9.8969517499999995</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <f t="shared" si="6"/>
         <v>10.401184337500005</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <f t="shared" si="6"/>
         <v>10.921243554375003</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <f t="shared" si="6"/>
         <v>11.467305732093758</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <f t="shared" si="6"/>
         <v>12.040671018698443</v>
       </c>
@@ -3910,27 +4049,27 @@
       <c r="B36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <f>SUM(C32:C35)</f>
         <v>8.3413880000000002</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <f t="shared" ref="D36:H36" si="8">SUM(D32:D35)</f>
         <v>8.9602348999999997</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <f t="shared" si="8"/>
         <v>10.353316145000004</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <f t="shared" si="8"/>
         <v>10.766808452250004</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <f t="shared" si="8"/>
         <v>11.306087374862507</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f t="shared" si="8"/>
         <v>11.87139174360563</v>
       </c>
@@ -4709,8 +4848,8 @@
   </sheetPr>
   <dimension ref="B4:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5536,7 +5675,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="74" t="s">
         <v>189</v>
       </c>
       <c r="C57" s="22">
@@ -5594,30 +5733,30 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C59" s="65">
         <f>-C7</f>
         <v>-4.0999999999999999E-4</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D59" s="65">
         <f t="shared" ref="D59:H59" si="13">-D7</f>
         <v>-4.3050000000000006E-4</v>
       </c>
-      <c r="E59" s="64">
+      <c r="E59" s="65">
         <f t="shared" si="13"/>
         <v>-4.520250000000001E-4</v>
       </c>
-      <c r="F59" s="64">
+      <c r="F59" s="65">
         <f t="shared" si="13"/>
         <v>-4.7462625000000016E-4</v>
       </c>
-      <c r="G59" s="64">
+      <c r="G59" s="65">
         <f t="shared" si="13"/>
         <v>-4.9835756250000019E-4</v>
       </c>
-      <c r="H59" s="64">
+      <c r="H59" s="65">
         <f t="shared" si="13"/>
         <v>-5.2327544062500016E-4</v>
       </c>
@@ -5681,88 +5820,88 @@
       </c>
     </row>
     <row r="62" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="68">
+      <c r="C62" s="69">
         <f>C11</f>
         <v>4</v>
       </c>
-      <c r="D62" s="68">
+      <c r="D62" s="69">
         <f t="shared" ref="D62:H62" si="16">D11</f>
         <v>4.5</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E62" s="69">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="F62" s="68">
+      <c r="F62" s="69">
         <f t="shared" si="16"/>
         <v>5.5</v>
       </c>
-      <c r="G62" s="68">
+      <c r="G62" s="69">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="H62" s="68">
+      <c r="H62" s="69">
         <f t="shared" si="16"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="63" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="68">
+      <c r="C63" s="69">
         <f>C12</f>
         <v>5</v>
       </c>
-      <c r="D63" s="68">
+      <c r="D63" s="69">
         <f t="shared" ref="D63:H63" si="17">D12</f>
         <v>5.25</v>
       </c>
-      <c r="E63" s="68">
+      <c r="E63" s="69">
         <f t="shared" si="17"/>
         <v>5.5125000000000002</v>
       </c>
-      <c r="F63" s="68">
+      <c r="F63" s="69">
         <f t="shared" si="17"/>
         <v>5.7881250000000009</v>
       </c>
-      <c r="G63" s="68">
+      <c r="G63" s="69">
         <f t="shared" si="17"/>
         <v>6.0775312500000007</v>
       </c>
-      <c r="H63" s="68">
+      <c r="H63" s="69">
         <f t="shared" si="17"/>
         <v>6.3814078125000009</v>
       </c>
     </row>
     <row r="64" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="69">
+      <c r="C64" s="70">
         <f>C60-SUM(C61:C63)</f>
         <v>8.9144349999999974</v>
       </c>
-      <c r="D64" s="69">
+      <c r="D64" s="70">
         <f t="shared" ref="D64:H64" si="18">D60-SUM(D61:D63)</f>
         <v>10.114238750000005</v>
       </c>
-      <c r="E64" s="69">
+      <c r="E64" s="70">
         <f t="shared" si="18"/>
         <v>10.338527687500005</v>
       </c>
-      <c r="F64" s="69">
+      <c r="F64" s="70">
         <f t="shared" si="18"/>
         <v>10.604746071875006</v>
       </c>
-      <c r="G64" s="69">
+      <c r="G64" s="70">
         <f t="shared" si="18"/>
         <v>10.91312887546875</v>
       </c>
-      <c r="H64" s="69">
+      <c r="H64" s="70">
         <f t="shared" si="18"/>
         <v>11.261930819242195</v>
       </c>
@@ -5797,88 +5936,88 @@
       </c>
     </row>
     <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="72">
+      <c r="C66" s="73">
         <f>C15</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D66" s="72">
+      <c r="D66" s="73">
         <f t="shared" ref="D66:H66" si="20">D15</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E66" s="72">
+      <c r="E66" s="73">
         <f t="shared" si="20"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F66" s="72">
+      <c r="F66" s="73">
         <f t="shared" si="20"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G66" s="72">
+      <c r="G66" s="73">
         <f t="shared" si="20"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="H66" s="72">
+      <c r="H66" s="73">
         <f t="shared" si="20"/>
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="67" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="72">
         <f>C13+C14</f>
         <v>1.0049999999999999</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="72">
         <f t="shared" ref="D67:H67" si="21">D13+D14</f>
         <v>1.0049999999999999</v>
       </c>
-      <c r="E67" s="71">
+      <c r="E67" s="72">
         <f t="shared" si="21"/>
         <v>1.0049999999999999</v>
       </c>
-      <c r="F67" s="71">
+      <c r="F67" s="72">
         <f t="shared" si="21"/>
         <v>1.0049999999999999</v>
       </c>
-      <c r="G67" s="71">
+      <c r="G67" s="72">
         <f t="shared" si="21"/>
         <v>1.0049999999999999</v>
       </c>
-      <c r="H67" s="71">
+      <c r="H67" s="72">
         <f t="shared" si="21"/>
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="68" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="71">
+      <c r="C68" s="72">
         <f>C64-SUM(C66:C67)</f>
         <v>7.9082349999999977</v>
       </c>
-      <c r="D68" s="71">
+      <c r="D68" s="72">
         <f t="shared" ref="D68:H68" si="22">D64-SUM(D66:D67)</f>
         <v>9.1080387500000057</v>
       </c>
-      <c r="E68" s="71">
+      <c r="E68" s="72">
         <f t="shared" si="22"/>
         <v>9.3323276875000047</v>
       </c>
-      <c r="F68" s="71">
+      <c r="F68" s="72">
         <f t="shared" si="22"/>
         <v>9.5985460718750062</v>
       </c>
-      <c r="G68" s="71">
+      <c r="G68" s="72">
         <f t="shared" si="22"/>
         <v>9.9069288754687506</v>
       </c>
-      <c r="H68" s="71">
+      <c r="H68" s="72">
         <f t="shared" si="22"/>
         <v>10.255730819242196</v>
       </c>
@@ -6643,17 +6782,764 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D3EAE0-C113-6145-B183-0FCD62427E4B}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="37.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="B2" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="64">
+        <f>Input!C4</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="64">
+        <f>Input!D4</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="64">
+        <f>Input!E4</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="64">
+        <f>Input!F4</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="64">
+        <f>Input!G4</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="64">
+        <f>Input!H4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="77">
+        <f>'Sales &amp; Prod'!C9-'SGA &amp; PL &amp; BS'!C7*'Sales &amp; Prod'!$C$34</f>
+        <v>23.999700000000001</v>
+      </c>
+      <c r="D3" s="77">
+        <f>'Sales &amp; Prod'!D9-'SGA &amp; PL &amp; BS'!D7*'Sales &amp; Prod'!$C$34</f>
+        <v>25.199685000000002</v>
+      </c>
+      <c r="E3" s="77">
+        <f>'Sales &amp; Prod'!E9-'SGA &amp; PL &amp; BS'!E7*'Sales &amp; Prod'!$C$34</f>
+        <v>26.459669250000005</v>
+      </c>
+      <c r="F3" s="77">
+        <f>'Sales &amp; Prod'!F9-'SGA &amp; PL &amp; BS'!F7*'Sales &amp; Prod'!$C$34</f>
+        <v>27.782652712500006</v>
+      </c>
+      <c r="G3" s="77">
+        <f>'Sales &amp; Prod'!G9-'SGA &amp; PL &amp; BS'!G7*'Sales &amp; Prod'!$C$34</f>
+        <v>29.171785348125006</v>
+      </c>
+      <c r="H3" s="77">
+        <f>'Sales &amp; Prod'!H9-'SGA &amp; PL &amp; BS'!H7*'Sales &amp; Prod'!$C$34</f>
+        <v>30.63037461553126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="77">
+        <f>'RM &amp; DL &amp; FG'!C13+('RM &amp; DL &amp; FG'!C42+'RM &amp; DL &amp; FG'!C48)*'Sales &amp; Prod'!$C$34</f>
+        <v>10.042346341463416</v>
+      </c>
+      <c r="D4" s="77">
+        <f>'RM &amp; DL &amp; FG'!D13+('RM &amp; DL &amp; FG'!D42+'RM &amp; DL &amp; FG'!D48)*'Sales &amp; Prod'!$C$34</f>
+        <v>9.5342963414634152</v>
+      </c>
+      <c r="E4" s="77">
+        <f>'RM &amp; DL &amp; FG'!E13+('RM &amp; DL &amp; FG'!E42+'RM &amp; DL &amp; FG'!E48)*'Sales &amp; Prod'!$C$34</f>
+        <v>10.017843841463421</v>
+      </c>
+      <c r="F4" s="77">
+        <f>'RM &amp; DL &amp; FG'!F13+('RM &amp; DL &amp; FG'!F42+'RM &amp; DL &amp; FG'!F48)*'Sales &amp; Prod'!$C$34</f>
+        <v>10.519254082317076</v>
+      </c>
+      <c r="G4" s="77">
+        <f>'RM &amp; DL &amp; FG'!G13+('RM &amp; DL &amp; FG'!G42+'RM &amp; DL &amp; FG'!G48)*'Sales &amp; Prod'!$C$34</f>
+        <v>11.04291520106708</v>
+      </c>
+      <c r="H4" s="77">
+        <f>'RM &amp; DL &amp; FG'!H13+('RM &amp; DL &amp; FG'!H42+'RM &amp; DL &amp; FG'!H48)*'Sales &amp; Prod'!$C$34</f>
+        <v>11.592759375754579</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="79">
+        <f>('SGA &amp; PL &amp; BS'!C11+'SGA &amp; PL &amp; BS'!C12)*'Sales &amp; Prod'!$C$34</f>
+        <v>6.5853658536585371</v>
+      </c>
+      <c r="D5" s="79">
+        <f>('SGA &amp; PL &amp; BS'!D11+'SGA &amp; PL &amp; BS'!D12)*'Sales &amp; Prod'!$C$34</f>
+        <v>7.1341463414634152</v>
+      </c>
+      <c r="E5" s="79">
+        <f>('SGA &amp; PL &amp; BS'!E11+'SGA &amp; PL &amp; BS'!E12)*'Sales &amp; Prod'!$C$34</f>
+        <v>7.6920731707317076</v>
+      </c>
+      <c r="F5" s="79">
+        <f>('SGA &amp; PL &amp; BS'!F11+'SGA &amp; PL &amp; BS'!F12)*'Sales &amp; Prod'!$C$34</f>
+        <v>8.2596036585365873</v>
+      </c>
+      <c r="G5" s="79">
+        <f>('SGA &amp; PL &amp; BS'!G11+'SGA &amp; PL &amp; BS'!G12)*'Sales &amp; Prod'!$C$34</f>
+        <v>8.8372179878048787</v>
+      </c>
+      <c r="H5" s="79">
+        <f>('SGA &amp; PL &amp; BS'!H11+'SGA &amp; PL &amp; BS'!H12)*'Sales &amp; Prod'!$C$34</f>
+        <v>9.4254203506097571</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="35">
+        <f>C3-SUM(C4:C5)</f>
+        <v>7.3719878048780494</v>
+      </c>
+      <c r="D6" s="35">
+        <f>D3-SUM(D4:D5)</f>
+        <v>8.5312423170731719</v>
+      </c>
+      <c r="E6" s="35">
+        <f>E3-SUM(E4:E5)</f>
+        <v>8.7497522378048771</v>
+      </c>
+      <c r="F6" s="35">
+        <f>F3-SUM(F4:F5)</f>
+        <v>9.003794971646343</v>
+      </c>
+      <c r="G6" s="35">
+        <f>G3-SUM(G4:G5)</f>
+        <v>9.2916521592530472</v>
+      </c>
+      <c r="H6" s="35">
+        <f>H3-SUM(H4:H5)</f>
+        <v>9.612194889166922</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="35">
+        <f>C6/'Sales &amp; Prod'!C5</f>
+        <v>2.4573292682926833</v>
+      </c>
+      <c r="D7" s="35">
+        <f>D6/'Sales &amp; Prod'!D5</f>
+        <v>2.708330894308943</v>
+      </c>
+      <c r="E7" s="35">
+        <f>E6/'Sales &amp; Prod'!E5</f>
+        <v>2.6454277362977705</v>
+      </c>
+      <c r="F7" s="35">
+        <f>F6/'Sales &amp; Prod'!F5</f>
+        <v>2.5926055419922518</v>
+      </c>
+      <c r="G7" s="35">
+        <f>G6/'Sales &amp; Prod'!G5</f>
+        <v>2.5480884087742717</v>
+      </c>
+      <c r="H7" s="35">
+        <f>H6/'Sales &amp; Prod'!H5</f>
+        <v>2.5104687376188903</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="83">
+        <f>C6/C3</f>
+        <v>0.30716999816156237</v>
+      </c>
+      <c r="D8" s="83">
+        <f t="shared" ref="D8:H8" si="0">D6/D3</f>
+        <v>0.33854559360853803</v>
+      </c>
+      <c r="E8" s="83">
+        <f t="shared" si="0"/>
+        <v>0.33068260056972842</v>
+      </c>
+      <c r="F8" s="83">
+        <f t="shared" si="0"/>
+        <v>0.32407974374582826</v>
+      </c>
+      <c r="G8" s="83">
+        <f t="shared" si="0"/>
+        <v>0.3185150325346906</v>
+      </c>
+      <c r="H8" s="83">
+        <f t="shared" si="0"/>
+        <v>0.31381251485879702</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="79">
+        <f>'Sales &amp; Prod'!C10-'SGA &amp; PL &amp; BS'!C7*'Sales &amp; Prod'!$C$35</f>
+        <v>4.3998900000000001</v>
+      </c>
+      <c r="D9" s="79">
+        <f>'Sales &amp; Prod'!D10-'SGA &amp; PL &amp; BS'!D7*'Sales &amp; Prod'!$C$35</f>
+        <v>4.6198845000000013</v>
+      </c>
+      <c r="E9" s="79">
+        <f>'Sales &amp; Prod'!E10-'SGA &amp; PL &amp; BS'!E7*'Sales &amp; Prod'!$C$35</f>
+        <v>4.8508787250000012</v>
+      </c>
+      <c r="F9" s="79">
+        <f>'Sales &amp; Prod'!F10-'SGA &amp; PL &amp; BS'!F7*'Sales &amp; Prod'!$C$35</f>
+        <v>5.0934226612500018</v>
+      </c>
+      <c r="G9" s="79">
+        <f>'Sales &amp; Prod'!G10-'SGA &amp; PL &amp; BS'!G7*'Sales &amp; Prod'!$C$35</f>
+        <v>5.3480937943125015</v>
+      </c>
+      <c r="H9" s="79">
+        <f>'Sales &amp; Prod'!H10-'SGA &amp; PL &amp; BS'!H7*'Sales &amp; Prod'!$C$35</f>
+        <v>5.6154984840281266</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="79">
+        <f>'RM &amp; DL &amp; FG'!C24+('RM &amp; DL &amp; FG'!C42+'RM &amp; DL &amp; FG'!C48)*'Sales &amp; Prod'!$C$35</f>
+        <v>0.4436286585365854</v>
+      </c>
+      <c r="D10" s="79">
+        <f>'RM &amp; DL &amp; FG'!D24+('RM &amp; DL &amp; FG'!D42+'RM &amp; DL &amp; FG'!D48)*'Sales &amp; Prod'!$C$35</f>
+        <v>0.42189540853658547</v>
+      </c>
+      <c r="E10" s="79">
+        <f>'RM &amp; DL &amp; FG'!E24+('RM &amp; DL &amp; FG'!E42+'RM &amp; DL &amp; FG'!E48)*'Sales &amp; Prod'!$C$35</f>
+        <v>0.44258049603658556</v>
+      </c>
+      <c r="F10" s="79">
+        <f>'RM &amp; DL &amp; FG'!F24+('RM &amp; DL &amp; FG'!F42+'RM &amp; DL &amp; FG'!F48)*'Sales &amp; Prod'!$C$35</f>
+        <v>0.46489947205792698</v>
+      </c>
+      <c r="G10" s="79">
+        <f>'RM &amp; DL &amp; FG'!G24+('RM &amp; DL &amp; FG'!G42+'RM &amp; DL &amp; FG'!G48)*'Sales &amp; Prod'!$C$35</f>
+        <v>0.48730053102667709</v>
+      </c>
+      <c r="H10" s="79">
+        <f>'RM &amp; DL &amp; FG'!H24+('RM &amp; DL &amp; FG'!H42+'RM &amp; DL &amp; FG'!H48)*'Sales &amp; Prod'!$C$35</f>
+        <v>0.51082164294386456</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="79">
+        <f>('SGA &amp; PL &amp; BS'!C11+'SGA &amp; PL &amp; BS'!C12)*'Sales &amp; Prod'!$C$35</f>
+        <v>2.4146341463414642</v>
+      </c>
+      <c r="D11" s="79">
+        <f>('SGA &amp; PL &amp; BS'!D11+'SGA &amp; PL &amp; BS'!D12)*'Sales &amp; Prod'!$C$35</f>
+        <v>2.6158536585365861</v>
+      </c>
+      <c r="E11" s="79">
+        <f>('SGA &amp; PL &amp; BS'!E11+'SGA &amp; PL &amp; BS'!E12)*'Sales &amp; Prod'!$C$35</f>
+        <v>2.8204268292682935</v>
+      </c>
+      <c r="F11" s="79">
+        <f>('SGA &amp; PL &amp; BS'!F11+'SGA &amp; PL &amp; BS'!F12)*'Sales &amp; Prod'!$C$35</f>
+        <v>3.0285213414634158</v>
+      </c>
+      <c r="G11" s="79">
+        <f>('SGA &amp; PL &amp; BS'!G11+'SGA &amp; PL &amp; BS'!G12)*'Sales &amp; Prod'!$C$35</f>
+        <v>3.2403132621951229</v>
+      </c>
+      <c r="H11" s="79">
+        <f>('SGA &amp; PL &amp; BS'!H11+'SGA &amp; PL &amp; BS'!H12)*'Sales &amp; Prod'!$C$35</f>
+        <v>3.4559874618902451</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="2:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="35">
+        <f>C9-SUM(C10:C11)</f>
+        <v>1.5416271951219507</v>
+      </c>
+      <c r="D13" s="35">
+        <f>D9-SUM(D10:D11)</f>
+        <v>1.5821354329268296</v>
+      </c>
+      <c r="E13" s="35">
+        <f>E9-SUM(E10:E11)</f>
+        <v>1.5878713996951221</v>
+      </c>
+      <c r="F13" s="35">
+        <f>F9-SUM(F10:F11)</f>
+        <v>1.6000018477286591</v>
+      </c>
+      <c r="G13" s="35">
+        <f>G9-SUM(G10:G11)</f>
+        <v>1.6204800010907014</v>
+      </c>
+      <c r="H13" s="35">
+        <f>H9-SUM(H10:H11)</f>
+        <v>1.6486893791940167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="42">
+        <f>C13/'Sales &amp; Prod'!C6</f>
+        <v>1.4014792682926822</v>
+      </c>
+      <c r="D14" s="42">
+        <f>D13/'Sales &amp; Prod'!D6</f>
+        <v>1.3698142276422764</v>
+      </c>
+      <c r="E14" s="42">
+        <f>E13/'Sales &amp; Prod'!E6</f>
+        <v>1.3093146977490182</v>
+      </c>
+      <c r="F14" s="42">
+        <f>F13/'Sales &amp; Prod'!F6</f>
+        <v>1.2564925034434991</v>
+      </c>
+      <c r="G14" s="42">
+        <f>G13/'Sales &amp; Prod'!G6</f>
+        <v>1.2119753702255194</v>
+      </c>
+      <c r="H14" s="42">
+        <f>H13/'Sales &amp; Prod'!H6</f>
+        <v>1.1743556990701374</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="83">
+        <f>C13/C9</f>
+        <v>0.35037857653758403</v>
+      </c>
+      <c r="D15" s="83">
+        <f t="shared" ref="D15:H15" si="1">D13/D9</f>
+        <v>0.34246211846353064</v>
+      </c>
+      <c r="E15" s="83">
+        <f t="shared" si="1"/>
+        <v>0.32733685785870098</v>
+      </c>
+      <c r="F15" s="83">
+        <f t="shared" si="1"/>
+        <v>0.31413097913535309</v>
+      </c>
+      <c r="G15" s="83">
+        <f t="shared" si="1"/>
+        <v>0.30300141759181964</v>
+      </c>
+      <c r="H15" s="83">
+        <f t="shared" si="1"/>
+        <v>0.29359626467415123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="76"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="35">
+        <f>'SGA &amp; PL &amp; BS'!C66+'SGA &amp; PL &amp; BS'!C67</f>
+        <v>1.0062</v>
+      </c>
+      <c r="D17" s="35">
+        <f>'SGA &amp; PL &amp; BS'!D66+'SGA &amp; PL &amp; BS'!D67</f>
+        <v>1.0062</v>
+      </c>
+      <c r="E17" s="35">
+        <f>'SGA &amp; PL &amp; BS'!E66+'SGA &amp; PL &amp; BS'!E67</f>
+        <v>1.0062</v>
+      </c>
+      <c r="F17" s="35">
+        <f>'SGA &amp; PL &amp; BS'!F66+'SGA &amp; PL &amp; BS'!F67</f>
+        <v>1.0062</v>
+      </c>
+      <c r="G17" s="35">
+        <f>'SGA &amp; PL &amp; BS'!G66+'SGA &amp; PL &amp; BS'!G67</f>
+        <v>1.0062</v>
+      </c>
+      <c r="H17" s="35">
+        <f>'SGA &amp; PL &amp; BS'!H66+'SGA &amp; PL &amp; BS'!H67</f>
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="35">
+        <f>C17*'Sales &amp; Prod'!$C$34</f>
+        <v>0.73624390243902449</v>
+      </c>
+      <c r="D18" s="35">
+        <f>D17*'Sales &amp; Prod'!$C$34</f>
+        <v>0.73624390243902449</v>
+      </c>
+      <c r="E18" s="35">
+        <f>E17*'Sales &amp; Prod'!$C$34</f>
+        <v>0.73624390243902449</v>
+      </c>
+      <c r="F18" s="35">
+        <f>F17*'Sales &amp; Prod'!$C$34</f>
+        <v>0.73624390243902449</v>
+      </c>
+      <c r="G18" s="35">
+        <f>G17*'Sales &amp; Prod'!$C$34</f>
+        <v>0.73624390243902449</v>
+      </c>
+      <c r="H18" s="35">
+        <f>H17*'Sales &amp; Prod'!$C$34</f>
+        <v>0.73624390243902449</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="63">
+        <f>C18*'Sales &amp; Prod'!$C$35</f>
+        <v>0.19752885187388466</v>
+      </c>
+      <c r="D19" s="63">
+        <f>D18*'Sales &amp; Prod'!$C$35</f>
+        <v>0.19752885187388466</v>
+      </c>
+      <c r="E19" s="63">
+        <f>E18*'Sales &amp; Prod'!$C$35</f>
+        <v>0.19752885187388466</v>
+      </c>
+      <c r="F19" s="63">
+        <f>F18*'Sales &amp; Prod'!$C$35</f>
+        <v>0.19752885187388466</v>
+      </c>
+      <c r="G19" s="63">
+        <f>G18*'Sales &amp; Prod'!$C$35</f>
+        <v>0.19752885187388466</v>
+      </c>
+      <c r="H19" s="63">
+        <f>H18*'Sales &amp; Prod'!$C$35</f>
+        <v>0.19752885187388466</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="62"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="62"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+    </row>
+    <row r="23" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B23" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="81">
+        <f>C18/C7</f>
+        <v>0.29961141632051452</v>
+      </c>
+      <c r="D23" s="81">
+        <f>D17/D7</f>
+        <v>0.37152033457741201</v>
+      </c>
+      <c r="E23" s="81">
+        <f>E17/E7</f>
+        <v>0.38035436999241534</v>
+      </c>
+      <c r="F23" s="81">
+        <f>F17/F7</f>
+        <v>0.38810377579722349</v>
+      </c>
+      <c r="G23" s="81">
+        <f>G17/G7</f>
+        <v>0.39488425775776781</v>
+      </c>
+      <c r="H23" s="81">
+        <f>H17/H7</f>
+        <v>0.40080164509610772</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="81">
+        <f>C18/C8</f>
+        <v>2.3968613694224845</v>
+      </c>
+      <c r="D24" s="81">
+        <f t="shared" ref="D24:H24" si="2">D18/D8</f>
+        <v>2.1747259935993939</v>
+      </c>
+      <c r="E24" s="81">
+        <f t="shared" si="2"/>
+        <v>2.2264367740260909</v>
+      </c>
+      <c r="F24" s="81">
+        <f t="shared" si="2"/>
+        <v>2.2717985824391773</v>
+      </c>
+      <c r="G24" s="81">
+        <f t="shared" si="2"/>
+        <v>2.3114887124168546</v>
+      </c>
+      <c r="H24" s="81">
+        <f t="shared" si="2"/>
+        <v>2.3461266443446482</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="81">
+        <f>C3-C24</f>
+        <v>21.602838630577516</v>
+      </c>
+      <c r="D25" s="81">
+        <f t="shared" ref="D25:H25" si="3">D3-D24</f>
+        <v>23.024959006400607</v>
+      </c>
+      <c r="E25" s="81">
+        <f t="shared" si="3"/>
+        <v>24.233232475973914</v>
+      </c>
+      <c r="F25" s="81">
+        <f t="shared" si="3"/>
+        <v>25.510854130060828</v>
+      </c>
+      <c r="G25" s="81">
+        <f t="shared" si="3"/>
+        <v>26.860296635708153</v>
+      </c>
+      <c r="H25" s="81">
+        <f t="shared" si="3"/>
+        <v>28.284247971186613</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+    </row>
+    <row r="27" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B27" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="81">
+        <f>C19/C14</f>
+        <v>0.14094311371050058</v>
+      </c>
+      <c r="D27" s="81">
+        <f t="shared" ref="D27:H27" si="4">D17/D14</f>
+        <v>0.7345521602092504</v>
+      </c>
+      <c r="E27" s="81">
+        <f t="shared" si="4"/>
+        <v>0.76849362626866191</v>
+      </c>
+      <c r="F27" s="81">
+        <f t="shared" si="4"/>
+        <v>0.80080063927356804</v>
+      </c>
+      <c r="G27" s="81">
+        <f t="shared" si="4"/>
+        <v>0.8302148910936783</v>
+      </c>
+      <c r="H27" s="81">
+        <f t="shared" si="4"/>
+        <v>0.85681024990700505</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B28" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="81">
+        <f>C19/C15</f>
+        <v>0.56375836053063122</v>
+      </c>
+      <c r="D28" s="81">
+        <f t="shared" ref="D28:H28" si="5">D19/D15</f>
+        <v>0.57679036957461283</v>
+      </c>
+      <c r="E28" s="81">
+        <f t="shared" si="5"/>
+        <v>0.60344213348302633</v>
+      </c>
+      <c r="F28" s="81">
+        <f t="shared" si="5"/>
+        <v>0.62881048032124598</v>
+      </c>
+      <c r="G28" s="81">
+        <f t="shared" si="5"/>
+        <v>0.65190735226189744</v>
+      </c>
+      <c r="H28" s="81">
+        <f t="shared" si="5"/>
+        <v>0.6727907526109459</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="81">
+        <f>C9-C28</f>
+        <v>3.836131639469369</v>
+      </c>
+      <c r="D29" s="81">
+        <f t="shared" ref="D29:H29" si="6">D9-D28</f>
+        <v>4.0430941304253887</v>
+      </c>
+      <c r="E29" s="81">
+        <f t="shared" si="6"/>
+        <v>4.2474365915169745</v>
+      </c>
+      <c r="F29" s="81">
+        <f t="shared" si="6"/>
+        <v>4.4646121809287553</v>
+      </c>
+      <c r="G29" s="81">
+        <f t="shared" si="6"/>
+        <v>4.6961864420506041</v>
+      </c>
+      <c r="H29" s="81">
+        <f t="shared" si="6"/>
+        <v>4.9427077314171806</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="39">
+        <f>'SGA &amp; PL &amp; BS'!C64/'SGA &amp; PL &amp; BS'!C71</f>
+        <v>1.127234458763555</v>
+      </c>
+      <c r="D33" s="39">
+        <f>'SGA &amp; PL &amp; BS'!D64/'SGA &amp; PL &amp; BS'!D71</f>
+        <v>1.1104738382892805</v>
+      </c>
+      <c r="E33" s="39">
+        <f>'SGA &amp; PL &amp; BS'!E64/'SGA &amp; PL &amp; BS'!E71</f>
+        <v>1.1078187600878755</v>
+      </c>
+      <c r="F33" s="39">
+        <f>'SGA &amp; PL &amp; BS'!F64/'SGA &amp; PL &amp; BS'!F71</f>
+        <v>1.1048283763463196</v>
+      </c>
+      <c r="G33" s="39">
+        <f>'SGA &amp; PL &amp; BS'!G64/'SGA &amp; PL &amp; BS'!G71</f>
+        <v>1.1015652794774298</v>
+      </c>
+      <c r="H33" s="39">
+        <f>'SGA &amp; PL &amp; BS'!H64/'SGA &amp; PL &amp; BS'!H71</f>
+        <v>1.0981109993753084</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="42"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HasNameCo Master-Plan.xlsx
+++ b/HasNameCo Master-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C834A-1168-CF40-B173-191F5CB9A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8357C-61ED-724E-8807-A9D284356FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54420" yWindow="-7600" windowWidth="25580" windowHeight="28800" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="47620" yWindow="-7600" windowWidth="32380" windowHeight="28800" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="6" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="213">
   <si>
     <t>HasName co</t>
   </si>
@@ -756,10 +756,16 @@
     <t>Leverage</t>
   </si>
   <si>
-    <t>Degree of Operating leverage</t>
-  </si>
-  <si>
     <t>Break-even analysis</t>
+  </si>
+  <si>
+    <t>Degree of Operating leverage (DOL)</t>
+  </si>
+  <si>
+    <t>! Percent change in Op. inc = DOL x percent change in sales</t>
+  </si>
+  <si>
+    <t>! Break-even = Qty x Price - Qty x Var. costs  - Fixed costs = Qty x (Price - Var cost) - Fixed cost = Qty x unit CM - Fixed cost</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1025,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1162,6 +1168,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6782,10 +6789,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D3EAE0-C113-6145-B183-0FCD62427E4B}">
-  <dimension ref="B2:H34"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7292,7 +7299,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="87"/>
       <c r="D22" s="64"/>
@@ -7494,50 +7501,66 @@
       <c r="H30" s="81"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="42"/>
+      <c r="B31" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="85" t="s">
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="39">
         <f>'SGA &amp; PL &amp; BS'!C64/'SGA &amp; PL &amp; BS'!C71</f>
         <v>1.127234458763555</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D34" s="39">
         <f>'SGA &amp; PL &amp; BS'!D64/'SGA &amp; PL &amp; BS'!D71</f>
         <v>1.1104738382892805</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E34" s="39">
         <f>'SGA &amp; PL &amp; BS'!E64/'SGA &amp; PL &amp; BS'!E71</f>
         <v>1.1078187600878755</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F34" s="39">
         <f>'SGA &amp; PL &amp; BS'!F64/'SGA &amp; PL &amp; BS'!F71</f>
         <v>1.1048283763463196</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G34" s="39">
         <f>'SGA &amp; PL &amp; BS'!G64/'SGA &amp; PL &amp; BS'!G71</f>
         <v>1.1015652794774298</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H34" s="39">
         <f>'SGA &amp; PL &amp; BS'!H64/'SGA &amp; PL &amp; BS'!H71</f>
         <v>1.0981109993753084</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="42"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HasNameCo Master-Plan.xlsx
+++ b/HasNameCo Master-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8357C-61ED-724E-8807-A9D284356FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA3520-6393-0B47-9FD7-F914B2D6DE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47620" yWindow="-7600" windowWidth="32380" windowHeight="28800" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="52600" yWindow="-7600" windowWidth="27400" windowHeight="28800" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,15 @@
     <sheet name="Dash" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="unit">Input!$C$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Dash!$B$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Dash!$B$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Dash!$C$27:$H$27</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Dash!$C$28:$H$28</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Dash!$B$27</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Dash!$B$28</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Dash!$C$27:$H$27</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Dash!$C$28:$H$28</definedName>
+    <definedName name="unit">Input!$C$3:$C$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -66,10 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="213">
-  <si>
-    <t>HasName co</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
   <si>
     <t> </t>
   </si>
@@ -699,9 +704,6 @@
     </r>
   </si>
   <si>
-    <t>Contribution ratio @ sales</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Break-even quantity A (in million)
 </t>
@@ -766,6 +768,15 @@
   </si>
   <si>
     <t>! Break-even = Qty x Price - Qty x Var. costs  - Fixed costs = Qty x (Price - Var cost) - Fixed cost = Qty x unit CM - Fixed cost</t>
+  </si>
+  <si>
+    <t>HasName co,   by elie diwambuena</t>
+  </si>
+  <si>
+    <t>Contribution ratio A @ sales</t>
+  </si>
+  <si>
+    <t>Contribution ratio B @ sales</t>
   </si>
 </sst>
 </file>
@@ -781,7 +792,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -899,6 +910,12 @@
       <b/>
       <sz val="16"/>
       <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1025,7 +1042,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1149,6 +1166,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1186,6 +1204,3016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Contribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> margin</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Sales A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$3:$H$3</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- Costs of goods sold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$4:$H$4</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- Variables S&amp;A expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$5:$H$5</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contribution margin A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3719878048780494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5312423170731719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7497522378048771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.003794971646343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2916521592530472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.612194889166922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$9:$H$9</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- Costs of goods sold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$10:$H$10</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>- Variables S&amp;A expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$11:$H$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$12:$H$12</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contribution margin B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5416271951219507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5821354329268296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5878713996951221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6000018477286591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6204800010907014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6486893791940167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="956878591"/>
+        <c:axId val="956880591"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contribution ratio A @ sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.30716999816156237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33854559360853803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33068260056972842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407974374582826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3185150325346906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31381251485879702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contribution ratio B @ sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dash!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35037857653758403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34246211846353064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32733685785870098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31413097913535309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30300141759181964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29359626467415123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9808-6F4B-A81C-7770F24AA8EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="955558207"/>
+        <c:axId val="955555919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="956878591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956880591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956880591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956878591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="955555919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955558207"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="955558207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="955555919"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Break-even</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Break-even quantity A (in million)
+          Fixed Cost / (Unit CM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29961141632051452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37152033457741201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38035436999241534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38810377579722349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39488425775776781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40080164509610772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5BC4-D149-AE9D-DDBA271450EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Break-even euro A (in million)
+          Fixed Cost / (Unit CM ratio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3968613694224845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1747259935993939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2264367740260909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2717985824391773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3114887124168546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3461266443446482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5BC4-D149-AE9D-DDBA271450EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Break-even quantity B (in million)
+Fixed Cost / (Unit CM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14094311371050058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7345521602092504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76849362626866191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80080063927356804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8302148910936783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85681024990700505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5BC4-D149-AE9D-DDBA271450EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dash!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Break-even euro B (in million)
+          Fixed Cost / (Unit CM ratio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dash!$C$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.56375836053063122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57679036957461283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60344213348302633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62881048032124598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65190735226189744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6727907526109459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5BC4-D149-AE9D-DDBA271450EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="956365055"/>
+        <c:axId val="950207007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="956365055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950207007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="950207007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="956365055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>449369</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5840280-8437-B22D-F311-6306B1A33547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74867</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBE925E-9DD8-861A-6284-774E704617DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1485,10 +4513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD714F5-1C7F-4136-BC45-C0D8A74B0D61}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1500,245 +4528,245 @@
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="B2" s="48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D16" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +4779,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B1:I58"/>
+  <dimension ref="B1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:H56"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,154 +4796,132 @@
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="B1" s="75" t="str">
+        <f>'Start here'!B2</f>
+        <v>HasName co,   by elie diwambuena</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="59" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-    </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D6" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E6" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F6" s="22">
         <v>4</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G6" s="22">
         <v>5</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H6" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="53">
+        <v>25</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="53">
         <v>8</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D9" s="53">
         <v>8</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E9" s="53">
         <v>8</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F9" s="53">
         <v>8</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G9" s="53">
         <v>8</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H9" s="53">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="54">
-        <v>4</v>
-      </c>
-      <c r="D8" s="54">
-        <v>4</v>
-      </c>
-      <c r="E8" s="54">
-        <v>4</v>
-      </c>
-      <c r="F8" s="54">
-        <v>4</v>
-      </c>
-      <c r="G8" s="54">
-        <v>4</v>
-      </c>
-      <c r="H8" s="54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="31">
-        <v>0.9</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="54">
+        <v>4</v>
+      </c>
+      <c r="D10" s="54">
+        <v>4</v>
+      </c>
+      <c r="E10" s="54">
+        <v>4</v>
+      </c>
+      <c r="F10" s="54">
+        <v>4</v>
+      </c>
+      <c r="G10" s="54">
+        <v>4</v>
+      </c>
+      <c r="H10" s="54">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="60"/>
+      <c r="B11" s="19"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -1923,21 +4929,27 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="60"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="60"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -1945,225 +4957,221 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="D14" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="E14" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="F14" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="G14" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1E-4</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D18" s="22">
         <v>2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E18" s="22">
         <v>3</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F18" s="22">
         <v>4</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G18" s="22">
         <v>5</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H18" s="22">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="D17" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="H17" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.5</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="37">
-        <v>0.1</v>
+        <v>35</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.7</v>
+        <v>37</v>
+      </c>
+      <c r="C22" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="B23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="37">
-        <v>0.1</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -2172,10 +5180,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="37">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -2184,7 +5192,12 @@
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
+      <c r="B27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="37">
+        <v>0.1</v>
+      </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -2192,7 +5205,12 @@
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
+      <c r="B28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="37">
+        <v>0.1</v>
+      </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -2208,147 +5226,117 @@
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="22">
-        <f>C16</f>
+      <c r="B30" s="19"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="22">
+        <f>C18</f>
         <v>1</v>
       </c>
-      <c r="D30" s="22">
-        <f t="shared" ref="D30:H30" si="0">D16</f>
+      <c r="D32" s="22">
+        <f t="shared" ref="D32:H32" si="0">D18</f>
         <v>2</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E32" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F32" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G32" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H32" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="6">
-        <v>144</v>
-      </c>
-      <c r="D31" s="6">
-        <v>144</v>
-      </c>
-      <c r="E31" s="6">
-        <v>144</v>
-      </c>
-      <c r="F31" s="6">
-        <v>150</v>
-      </c>
-      <c r="G31" s="6">
-        <v>150</v>
-      </c>
-      <c r="H31" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6">
-        <v>10</v>
-      </c>
-      <c r="D32" s="6">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6">
-        <v>10</v>
-      </c>
-      <c r="F32" s="6">
-        <v>10</v>
-      </c>
-      <c r="G32" s="6">
-        <v>10</v>
-      </c>
-      <c r="H32" s="6">
-        <v>10</v>
-      </c>
-    </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="6">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D33" s="6">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E33" s="6">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="F33" s="6">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="G33" s="6">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="H33" s="6">
-        <v>21</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6">
+        <v>10</v>
+      </c>
+      <c r="G34" s="6">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="6">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D35" s="6">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E35" s="6">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F35" s="6">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G35" s="6">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="H35" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="6">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6">
-        <v>10</v>
-      </c>
-      <c r="F36" s="6">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6">
-        <v>10</v>
-      </c>
-      <c r="H36" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -2356,351 +5344,397 @@
         <v>47</v>
       </c>
       <c r="C37" s="6">
+        <v>64</v>
+      </c>
+      <c r="D37" s="6">
+        <v>64</v>
+      </c>
+      <c r="E37" s="6">
+        <v>64</v>
+      </c>
+      <c r="F37" s="6">
+        <v>64</v>
+      </c>
+      <c r="G37" s="6">
+        <v>64</v>
+      </c>
+      <c r="H37" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="6">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6">
+        <v>10</v>
+      </c>
+      <c r="G38" s="6">
+        <v>10</v>
+      </c>
+      <c r="H38" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="6">
         <v>5</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D39" s="6">
         <v>5</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E39" s="6">
         <v>5</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F39" s="6">
         <v>5</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G39" s="6">
         <v>5</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H39" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="19"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="6">
-        <v>5</v>
-      </c>
-      <c r="D40" s="6">
-        <v>5</v>
-      </c>
-      <c r="E40" s="6">
-        <v>5</v>
-      </c>
-      <c r="F40" s="6">
-        <v>5</v>
-      </c>
-      <c r="G40" s="6">
-        <v>5</v>
-      </c>
-      <c r="H40" s="6">
-        <v>5</v>
-      </c>
+      <c r="B40" s="19"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="19"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5</v>
+      </c>
+      <c r="G42" s="6">
+        <v>5</v>
+      </c>
+      <c r="H42" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="6" cm="1">
+        <f t="array" ref="C44">1200/unit</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D44" s="6" cm="1">
+        <f t="array" ref="D44">1200/unit</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E44" s="6" cm="1">
+        <f t="array" ref="E44">1200/unit</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F44" s="6" cm="1">
+        <f t="array" ref="F44">1200/unit</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G44" s="6" cm="1">
+        <f t="array" ref="G44">1200/unit</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H44" s="6" cm="1">
+        <f t="array" ref="H44">1200/unit</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="6" cm="1">
-        <f t="array" ref="C42">1200/unit</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D42" s="6" cm="1">
-        <f t="array" ref="D42">1200/unit</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E42" s="6" cm="1">
-        <f t="array" ref="E42">1200/unit</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="F42" s="6" cm="1">
-        <f t="array" ref="F42">1200/unit</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G42" s="6" cm="1">
-        <f t="array" ref="G42">1200/unit</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="H42" s="6" cm="1">
-        <f t="array" ref="H42">1200/unit</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="19" t="s">
+      <c r="C45" s="6" cm="1">
+        <f t="array" ref="C45">5000/unit</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D45" s="6" cm="1">
+        <f t="array" ref="D45">5000/unit</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E45" s="6" cm="1">
+        <f t="array" ref="E45">5000/unit</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F45" s="6" cm="1">
+        <f t="array" ref="F45">5000/unit</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G45" s="6" cm="1">
+        <f t="array" ref="G45">5000/unit</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H45" s="6" cm="1">
+        <f t="array" ref="H45">5000/unit</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="6" cm="1">
-        <f t="array" ref="C43">5000/unit</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D43" s="6" cm="1">
-        <f t="array" ref="D43">5000/unit</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E43" s="6" cm="1">
-        <f t="array" ref="E43">5000/unit</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F43" s="6" cm="1">
-        <f t="array" ref="F43">5000/unit</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G43" s="6" cm="1">
-        <f t="array" ref="G43">5000/unit</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H43" s="6" cm="1">
-        <f t="array" ref="H43">5000/unit</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="57" t="s">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="19"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="19"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="19"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="19"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="22">
-        <f>C30</f>
+      <c r="C49" s="22">
+        <f>C32</f>
         <v>1</v>
       </c>
-      <c r="D47" s="22">
-        <f t="shared" ref="D47:H47" si="1">D30</f>
+      <c r="D49" s="22">
+        <f t="shared" ref="D49:H49" si="1">D32</f>
         <v>2</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E49" s="22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F49" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G49" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H49" s="22">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="19" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="19" t="s">
+      <c r="C51" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="19"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="19"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="19"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="19"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="22">
-        <f>C47</f>
+      <c r="C54" s="22">
+        <f>C49</f>
         <v>1</v>
       </c>
-      <c r="D52" s="22">
-        <f t="shared" ref="D52:H52" si="2">D47</f>
+      <c r="D54" s="22">
+        <f t="shared" ref="D54:H54" si="2">D49</f>
         <v>2</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E54" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F54" s="22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G54" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H54" s="22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="58">
+        <v>4</v>
+      </c>
+      <c r="D56" s="58">
+        <v>4.5</v>
+      </c>
+      <c r="E56" s="58">
+        <v>5</v>
+      </c>
+      <c r="F56" s="58">
+        <v>5.5</v>
+      </c>
+      <c r="G56" s="58">
+        <v>6</v>
+      </c>
+      <c r="H56" s="58">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="58">
-        <v>4</v>
-      </c>
-      <c r="D54" s="58">
-        <v>4.5</v>
-      </c>
-      <c r="E54" s="58">
+      <c r="C57" s="58">
         <v>5</v>
       </c>
-      <c r="F54" s="58">
-        <v>5.5</v>
-      </c>
-      <c r="G54" s="58">
-        <v>6</v>
-      </c>
-      <c r="H54" s="58">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="58">
-        <v>5</v>
-      </c>
-      <c r="D55" s="58">
-        <f>C55*1.05</f>
+      <c r="D57" s="58">
+        <f>C57*1.05</f>
         <v>5.25</v>
       </c>
-      <c r="E55" s="58">
-        <f t="shared" ref="E55:H55" si="3">D55*1.05</f>
+      <c r="E57" s="58">
+        <f t="shared" ref="E57:H57" si="3">D57*1.05</f>
         <v>5.5125000000000002</v>
       </c>
-      <c r="F55" s="58">
+      <c r="F57" s="58">
         <f t="shared" si="3"/>
         <v>5.7881250000000009</v>
       </c>
-      <c r="G55" s="58">
+      <c r="G57" s="58">
         <f t="shared" si="3"/>
         <v>6.0775312500000007</v>
       </c>
-      <c r="H55" s="58">
+      <c r="H57" s="58">
         <f t="shared" si="3"/>
         <v>6.3814078125000009</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="58">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="58">
         <v>1</v>
       </c>
-      <c r="D56" s="58">
+      <c r="D58" s="58">
         <v>1</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E58" s="58">
         <v>1</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F58" s="58">
         <v>1</v>
       </c>
-      <c r="G56" s="58">
+      <c r="G58" s="58">
         <v>1</v>
       </c>
-      <c r="H56" s="58">
+      <c r="H58" s="58">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="49"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="C58" s="49"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="49"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="C60" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2711,10 +5745,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3:I35"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2726,9 +5760,15 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="B1" s="75" t="str">
+        <f>Input!B1</f>
+        <v>HasName co,   by elie diwambuena</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" s="59" t="str">
-        <f>Input!C3</f>
+        <f>Input!C5</f>
         <v>6-MONTHS PLAN</v>
       </c>
       <c r="D3" s="59"/>
@@ -2739,95 +5779,95 @@
     </row>
     <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="str">
-        <f>"Sales budgeting  (in "&amp;Input!C1&amp; ")"</f>
+        <f>"Sales budgeting  (in "&amp;Input!C3&amp; ")"</f>
         <v>Sales budgeting  (in 1000000)</v>
       </c>
       <c r="C4" s="22">
-        <f>Input!C4</f>
+        <f>Input!C6</f>
         <v>1</v>
       </c>
       <c r="D4" s="22">
-        <f>Input!D4</f>
+        <f>Input!D6</f>
         <v>2</v>
       </c>
       <c r="E4" s="22">
-        <f>Input!E4</f>
+        <f>Input!E6</f>
         <v>3</v>
       </c>
       <c r="F4" s="22">
-        <f>Input!F4</f>
+        <f>Input!F6</f>
         <v>4</v>
       </c>
       <c r="G4" s="22">
-        <f>Input!G4</f>
+        <f>Input!G6</f>
         <v>5</v>
       </c>
       <c r="H4" s="22">
-        <f>Input!H4</f>
+        <f>Input!H6</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="51" cm="1">
         <f t="array" ref="C5">3000000/unit</f>
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <f>C5*(1+Input!D5)</f>
+        <f>C5*(1+Input!D7)</f>
         <v>3.1500000000000004</v>
       </c>
       <c r="E5" s="3">
-        <f>D5*(1+Input!E5)</f>
+        <f>D5*(1+Input!E7)</f>
         <v>3.3075000000000006</v>
       </c>
       <c r="F5" s="3">
-        <f>E5*(1+Input!F5)</f>
+        <f>E5*(1+Input!F7)</f>
         <v>3.4728750000000006</v>
       </c>
       <c r="G5" s="3">
-        <f>F5*(1+Input!G5)</f>
+        <f>F5*(1+Input!G7)</f>
         <v>3.6465187500000007</v>
       </c>
       <c r="H5" s="3">
-        <f>G5*(1+Input!H5)</f>
+        <f>G5*(1+Input!H7)</f>
         <v>3.8288446875000011</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="45" cm="1">
         <f t="array" ref="C6">1100000/unit</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="D6" s="45">
-        <f>C6*(1+Input!D5)</f>
+        <f>C6*(1+Input!D7)</f>
         <v>1.1550000000000002</v>
       </c>
       <c r="E6" s="45">
-        <f>D6*(1+Input!E5)</f>
+        <f>D6*(1+Input!E7)</f>
         <v>1.2127500000000002</v>
       </c>
       <c r="F6" s="45">
-        <f>E6*(1+Input!F5)</f>
+        <f>E6*(1+Input!F7)</f>
         <v>1.2733875000000003</v>
       </c>
       <c r="G6" s="45">
-        <f>F6*(1+Input!G5)</f>
+        <f>F6*(1+Input!G7)</f>
         <v>1.3370568750000005</v>
       </c>
       <c r="H6" s="45">
-        <f>G6*(1+Input!H5)</f>
+        <f>G6*(1+Input!H7)</f>
         <v>1.4039097187500005</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="27">
         <f>SUM(C5:C6)</f>
@@ -2859,65 +5899,65 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="42">
-        <f>C5*Input!C7</f>
+        <f>C5*Input!C9</f>
         <v>24</v>
       </c>
       <c r="D9" s="42">
-        <f>D5*Input!D7</f>
+        <f>D5*Input!D9</f>
         <v>25.200000000000003</v>
       </c>
       <c r="E9" s="42">
-        <f>E5*Input!E7</f>
+        <f>E5*Input!E9</f>
         <v>26.460000000000004</v>
       </c>
       <c r="F9" s="42">
-        <f>F5*Input!F7</f>
+        <f>F5*Input!F9</f>
         <v>27.783000000000005</v>
       </c>
       <c r="G9" s="42">
-        <f>G5*Input!G7</f>
+        <f>G5*Input!G9</f>
         <v>29.172150000000006</v>
       </c>
       <c r="H9" s="42">
-        <f>H5*Input!H7</f>
+        <f>H5*Input!H9</f>
         <v>30.630757500000009</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="55">
-        <f>C6*Input!C8</f>
+        <f>C6*Input!C10</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="D10" s="55">
-        <f>D6*Input!D8</f>
+        <f>D6*Input!D10</f>
         <v>4.620000000000001</v>
       </c>
       <c r="E10" s="55">
-        <f>E6*Input!E8</f>
+        <f>E6*Input!E10</f>
         <v>4.8510000000000009</v>
       </c>
       <c r="F10" s="55">
-        <f>F6*Input!F8</f>
+        <f>F6*Input!F10</f>
         <v>5.0935500000000014</v>
       </c>
       <c r="G10" s="55">
-        <f>G6*Input!G8</f>
+        <f>G6*Input!G10</f>
         <v>5.3482275000000019</v>
       </c>
       <c r="H10" s="55">
-        <f>H6*Input!H8</f>
+        <f>H6*Input!H10</f>
         <v>5.6156388750000019</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="42">
         <f t="shared" ref="C11:H11" si="1">SUM(C9:C10)</f>
@@ -2961,7 +6001,7 @@
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -2971,7 +6011,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="22">
         <f>C4</f>
@@ -3000,98 +6040,98 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="30">
-        <f>C11*Input!$C$10</f>
+        <f>C11*Input!$C$12</f>
         <v>25.56</v>
       </c>
       <c r="D17" s="30">
-        <f>D11*Input!$C$10</f>
+        <f>D11*Input!$C$12</f>
         <v>26.838000000000005</v>
       </c>
       <c r="E17" s="30">
-        <f>E11*Input!$C$10</f>
+        <f>E11*Input!$C$12</f>
         <v>28.179900000000007</v>
       </c>
       <c r="F17" s="30">
-        <f>F11*Input!$C$10</f>
+        <f>F11*Input!$C$12</f>
         <v>29.588895000000008</v>
       </c>
       <c r="G17" s="30">
-        <f>G11*Input!$C$10</f>
+        <f>G11*Input!$C$12</f>
         <v>31.06833975000001</v>
       </c>
       <c r="H17" s="30">
-        <f>H11*Input!$C$10</f>
+        <f>H11*Input!$C$12</f>
         <v>32.621756737500007</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="3">
-        <f>C11*Input!$C$11</f>
+        <f>C11*Input!$C$13</f>
         <v>1.42</v>
       </c>
       <c r="E18" s="3">
-        <f>D11*Input!$C$11</f>
+        <f>D11*Input!$C$13</f>
         <v>1.4910000000000003</v>
       </c>
       <c r="F18" s="3">
-        <f>E11*Input!$C$11</f>
+        <f>E11*Input!$C$13</f>
         <v>1.5655500000000004</v>
       </c>
       <c r="G18" s="3">
-        <f>F11*Input!$C$11</f>
+        <f>F11*Input!$C$13</f>
         <v>1.6438275000000004</v>
       </c>
       <c r="H18" s="3">
-        <f>G11*Input!$C$11</f>
+        <f>G11*Input!$C$13</f>
         <v>1.7260188750000005</v>
       </c>
       <c r="I18" s="3">
-        <f>H11*Input!$C$11</f>
+        <f>H11*Input!$C$13</f>
         <v>1.8123198187500007</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="26"/>
       <c r="E19" s="34">
-        <f>C11*Input!$C$12</f>
+        <f>C11*Input!$C$14</f>
         <v>1.42</v>
       </c>
       <c r="F19" s="34">
-        <f>D11*Input!$C$12</f>
+        <f>D11*Input!$C$14</f>
         <v>1.4910000000000003</v>
       </c>
       <c r="G19" s="34">
-        <f>E11*Input!$C$12</f>
+        <f>E11*Input!$C$14</f>
         <v>1.5655500000000004</v>
       </c>
       <c r="H19" s="34">
-        <f>F11*Input!$C$12</f>
+        <f>F11*Input!$C$14</f>
         <v>1.6438275000000004</v>
       </c>
       <c r="I19" s="34">
-        <f>G11*Input!$C$12</f>
+        <f>G11*Input!$C$14</f>
         <v>1.7260188750000005</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="6">
         <f>SUM(C16:C19)</f>
@@ -3128,7 +6168,7 @@
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C25" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
@@ -3138,7 +6178,7 @@
     </row>
     <row r="26" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="22">
         <f>C15</f>
@@ -3197,36 +6237,36 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="41">
-        <f>C27*Input!C17</f>
+        <f>C27*Input!C19</f>
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="D28" s="41">
-        <f>D27*Input!D17</f>
+        <f>D27*Input!D19</f>
         <v>4.3050000000000005E-2</v>
       </c>
       <c r="E28" s="41">
-        <f>E27*Input!E17</f>
+        <f>E27*Input!E19</f>
         <v>4.5202500000000007E-2</v>
       </c>
       <c r="F28" s="41">
-        <f>F27*Input!F17</f>
+        <f>F27*Input!F19</f>
         <v>4.7462625000000015E-2</v>
       </c>
       <c r="G28" s="41">
-        <f>G27*Input!G17</f>
+        <f>G27*Input!G19</f>
         <v>4.9835756250000016E-2</v>
       </c>
       <c r="H28" s="41">
-        <f>H27*Input!H17</f>
+        <f>H27*Input!H19</f>
         <v>5.2327544062500016E-2</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="35">
         <f>SUM(C27:C28)</f>
@@ -3255,7 +6295,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="41">
@@ -3281,7 +6321,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="42">
         <f>C29+C31</f>
@@ -3310,7 +6350,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="43">
         <f>C5/C7</f>
@@ -3319,7 +6359,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="43">
         <f>C6/C7</f>
@@ -3341,10 +6381,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3:I78"/>
+  <dimension ref="B1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3358,9 +6398,15 @@
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="B1" s="75" t="str">
+        <f>Input!B1</f>
+        <v>HasName co,   by elie diwambuena</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C3" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
@@ -3370,36 +6416,36 @@
     </row>
     <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="22">
-        <f>Input!C4</f>
+        <f>Input!C6</f>
         <v>1</v>
       </c>
       <c r="D4" s="22">
-        <f>Input!D4</f>
+        <f>Input!D6</f>
         <v>2</v>
       </c>
       <c r="E4" s="22">
-        <f>Input!E4</f>
+        <f>Input!E6</f>
         <v>3</v>
       </c>
       <c r="F4" s="22">
-        <f>Input!F4</f>
+        <f>Input!F6</f>
         <v>4</v>
       </c>
       <c r="G4" s="22">
-        <f>Input!G4</f>
+        <f>Input!G6</f>
         <v>5</v>
       </c>
       <c r="H4" s="22">
-        <f>Input!H4</f>
+        <f>Input!H6</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3">
         <f>'Sales &amp; Prod'!$C$34*'Sales &amp; Prod'!C32</f>
@@ -3428,30 +6474,30 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3">
-        <f>C5*Input!C18</f>
+        <f>C5*Input!C20</f>
         <v>4.5449999999999999</v>
       </c>
       <c r="D6" s="3">
-        <f>D5*Input!D18</f>
+        <f>D5*Input!D20</f>
         <v>4.7272500000000006</v>
       </c>
       <c r="E6" s="3">
-        <f>E5*Input!E18</f>
+        <f>E5*Input!E20</f>
         <v>4.9636125000000018</v>
       </c>
       <c r="F6" s="3">
-        <f>F5*Input!F18</f>
+        <f>F5*Input!F20</f>
         <v>5.2117931250000016</v>
       </c>
       <c r="G6" s="3">
-        <f>G5*Input!G18</f>
+        <f>G5*Input!G20</f>
         <v>5.472382781250003</v>
       </c>
       <c r="H6" s="3">
-        <f>H5*Input!H18</f>
+        <f>H5*Input!H20</f>
         <v>5.7460019203125023</v>
       </c>
     </row>
@@ -3466,36 +6512,36 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3">
-        <f>C6*Input!C20</f>
+        <f>C6*Input!C22</f>
         <v>0.45450000000000002</v>
       </c>
       <c r="D8" s="3">
-        <f>D6*Input!D20</f>
+        <f>D6*Input!D22</f>
         <v>0.47272500000000006</v>
       </c>
       <c r="E8" s="3">
-        <f>E6*Input!E20</f>
+        <f>E6*Input!E22</f>
         <v>0.4963612500000002</v>
       </c>
       <c r="F8" s="3">
-        <f>F6*Input!F20</f>
+        <f>F6*Input!F22</f>
         <v>0.52117931250000016</v>
       </c>
       <c r="G8" s="3">
-        <f>G6*Input!G20</f>
+        <f>G6*Input!G22</f>
         <v>0.54723827812500037</v>
       </c>
       <c r="H8" s="3">
-        <f>H6*Input!H20</f>
+        <f>H6*Input!H22</f>
         <v>0.57460019203125023</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45">
@@ -3521,7 +6567,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3">
         <f>SUM(C6:C9)</f>
@@ -3559,36 +6605,36 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="45">
-        <f>Input!C21</f>
+        <f>Input!C23</f>
         <v>2</v>
       </c>
       <c r="D12" s="45">
-        <f>Input!D21</f>
+        <f>Input!D23</f>
         <v>2</v>
       </c>
       <c r="E12" s="45">
-        <f>Input!E21</f>
+        <f>Input!E23</f>
         <v>2</v>
       </c>
       <c r="F12" s="45">
-        <f>Input!F21</f>
+        <f>Input!F23</f>
         <v>2</v>
       </c>
       <c r="G12" s="45">
-        <f>Input!G21</f>
+        <f>Input!G23</f>
         <v>2</v>
       </c>
       <c r="H12" s="45">
-        <f>Input!H21</f>
+        <f>Input!H23</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3">
         <f>C12*C10</f>
@@ -3635,7 +6681,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3">
         <f>'Sales &amp; Prod'!$C$35*'Sales &amp; Prod'!C32</f>
@@ -3664,30 +6710,30 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3">
-        <f>Input!C19*C16</f>
+        <f>Input!C21*C16</f>
         <v>0.5555000000000001</v>
       </c>
       <c r="D17" s="3">
-        <f>Input!D19*D16</f>
+        <f>Input!D21*D16</f>
         <v>0.57777500000000015</v>
       </c>
       <c r="E17" s="3">
-        <f>Input!E19*E16</f>
+        <f>Input!E21*E16</f>
         <v>0.60666375000000028</v>
       </c>
       <c r="F17" s="3">
-        <f>Input!F19*F16</f>
+        <f>Input!F21*F16</f>
         <v>0.63699693750000019</v>
       </c>
       <c r="G17" s="3">
-        <f>Input!G19*G16</f>
+        <f>Input!G21*G16</f>
         <v>0.66884678437500045</v>
       </c>
       <c r="H17" s="3">
-        <f>Input!H19*H16</f>
+        <f>Input!H21*H16</f>
         <v>0.7022891235937504</v>
       </c>
     </row>
@@ -3702,36 +6748,36 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3">
-        <f>C17*Input!C20</f>
+        <f>C17*Input!C22</f>
         <v>5.5550000000000016E-2</v>
       </c>
       <c r="D19" s="3">
-        <f>D17*Input!D20</f>
+        <f>D17*Input!D22</f>
         <v>5.7777500000000016E-2</v>
       </c>
       <c r="E19" s="3">
-        <f>E17*Input!E20</f>
+        <f>E17*Input!E22</f>
         <v>6.0666375000000029E-2</v>
       </c>
       <c r="F19" s="3">
-        <f>F17*Input!F20</f>
+        <f>F17*Input!F22</f>
         <v>6.3699693750000022E-2</v>
       </c>
       <c r="G19" s="3">
-        <f>G17*Input!G20</f>
+        <f>G17*Input!G22</f>
         <v>6.6884678437500053E-2</v>
       </c>
       <c r="H19" s="3">
-        <f>H17*Input!H20</f>
+        <f>H17*Input!H22</f>
         <v>7.0228912359375048E-2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="45">
@@ -3757,7 +6803,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3">
         <f>SUM(C17:C20)</f>
@@ -3795,36 +6841,36 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="45">
-        <f>Input!C22</f>
+        <f>Input!C24</f>
         <v>0.7</v>
       </c>
       <c r="D23" s="45">
-        <f>Input!D22</f>
+        <f>Input!D24</f>
         <v>0.7</v>
       </c>
       <c r="E23" s="45">
-        <f>Input!E22</f>
+        <f>Input!E24</f>
         <v>0.7</v>
       </c>
       <c r="F23" s="45">
-        <f>Input!F22</f>
+        <f>Input!F24</f>
         <v>0.7</v>
       </c>
       <c r="G23" s="45">
-        <f>Input!G22</f>
+        <f>Input!G24</f>
         <v>0.7</v>
       </c>
       <c r="H23" s="45">
-        <f>Input!H22</f>
+        <f>Input!H24</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3">
         <f>C21*C23</f>
@@ -3871,7 +6917,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3">
         <f>C24+C13</f>
@@ -3918,7 +6964,7 @@
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C30" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
@@ -3928,7 +6974,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="22">
         <f>C4</f>
@@ -3957,7 +7003,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3968,93 +7014,93 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3">
-        <f>C27*Input!$C$24</f>
+        <f>C27*Input!$C$26</f>
         <v>8.3413880000000002</v>
       </c>
       <c r="D33" s="3">
-        <f>D27*Input!$C$24</f>
+        <f>D27*Input!$C$26</f>
         <v>7.9175614000000003</v>
       </c>
       <c r="E33" s="3">
-        <f>E27*Input!$C$24</f>
+        <f>E27*Input!$C$26</f>
         <v>8.3209474700000055</v>
       </c>
       <c r="F33" s="3">
-        <f>F27*Input!$C$24</f>
+        <f>F27*Input!$C$26</f>
         <v>8.7369948435000033</v>
       </c>
       <c r="G33" s="3">
-        <f>G27*Input!$C$24</f>
+        <f>G27*Input!$C$26</f>
         <v>9.1738445856750062</v>
       </c>
       <c r="H33" s="3">
-        <f>H27*Input!$C$24</f>
+        <f>H27*Input!$C$26</f>
         <v>9.6325368149587547</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <f>C27*Input!$C$25</f>
+        <f>C27*Input!$C$27</f>
         <v>1.0426735</v>
       </c>
       <c r="E34" s="3">
-        <f>D27*Input!$C$25</f>
+        <f>D27*Input!$C$27</f>
         <v>0.98969517500000004</v>
       </c>
       <c r="F34" s="3">
-        <f>E27*Input!$C$25</f>
+        <f>E27*Input!$C$27</f>
         <v>1.0401184337500007</v>
       </c>
       <c r="G34" s="3">
-        <f>F27*Input!$C$25</f>
+        <f>F27*Input!$C$27</f>
         <v>1.0921243554375004</v>
       </c>
       <c r="H34" s="3">
-        <f>G27*Input!$C$25</f>
+        <f>G27*Input!$C$27</f>
         <v>1.1467305732093758</v>
       </c>
       <c r="I34" s="3">
-        <f>H27*Input!$C$25</f>
+        <f>H27*Input!$C$27</f>
         <v>1.2040671018698443</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45">
-        <f>C27*Input!$C$26</f>
+        <f>C27*Input!$C$28</f>
         <v>1.0426735</v>
       </c>
       <c r="F35" s="45">
-        <f>D27*Input!$C$26</f>
+        <f>D27*Input!$C$28</f>
         <v>0.98969517500000004</v>
       </c>
       <c r="G35" s="45">
-        <f>E27*Input!$C$26</f>
+        <f>E27*Input!$C$28</f>
         <v>1.0401184337500007</v>
       </c>
       <c r="H35" s="45">
-        <f>F27*Input!$C$26</f>
+        <f>F27*Input!$C$28</f>
         <v>1.0921243554375004</v>
       </c>
       <c r="I35" s="45">
-        <f>G27*Input!$C$26</f>
+        <f>G27*Input!$C$28</f>
         <v>1.1467305732093758</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3">
         <f>SUM(C32:C35)</f>
@@ -4102,7 +7148,7 @@
     <row r="39" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -4112,7 +7158,7 @@
     </row>
     <row r="40" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B40" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="22">
         <f>C31</f>
@@ -4141,65 +7187,65 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="6">
-        <f>Input!C31*Input!C32+Input!C35*Input!C36</f>
+        <f>Input!C33*Input!C34+Input!C37*Input!C38</f>
         <v>2080</v>
       </c>
       <c r="D41" s="6">
-        <f>Input!D31*Input!D32+Input!D35*Input!D36</f>
+        <f>Input!D33*Input!D34+Input!D37*Input!D38</f>
         <v>2080</v>
       </c>
       <c r="E41" s="6">
-        <f>Input!E31*Input!E32+Input!E35*Input!E36</f>
+        <f>Input!E33*Input!E34+Input!E37*Input!E38</f>
         <v>2080</v>
       </c>
       <c r="F41" s="6">
-        <f>Input!F31*Input!F32+Input!F35*Input!F36</f>
+        <f>Input!F33*Input!F34+Input!F37*Input!F38</f>
         <v>2140</v>
       </c>
       <c r="G41" s="6">
-        <f>Input!G31*Input!G32+Input!G35*Input!G36</f>
+        <f>Input!G33*Input!G34+Input!G37*Input!G38</f>
         <v>2140</v>
       </c>
       <c r="H41" s="6">
-        <f>Input!H31*Input!H32+Input!H35*Input!H36</f>
+        <f>Input!H33*Input!H34+Input!H37*Input!H38</f>
         <v>2140</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" cm="1">
-        <f t="array" ref="C42">C41*(Input!C33+Input!C37)/unit</f>
+        <f t="array" ref="C42">C41*(Input!C35+Input!C39)/unit</f>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="D42" s="35" cm="1">
-        <f t="array" ref="D42">D41*(Input!D33+Input!D37)/unit</f>
+        <f t="array" ref="D42">D41*(Input!D35+Input!D39)/unit</f>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="E42" s="35" cm="1">
-        <f t="array" ref="E42">E41*(Input!E33+Input!E37)/unit</f>
+        <f t="array" ref="E42">E41*(Input!E35+Input!E39)/unit</f>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="F42" s="35" cm="1">
-        <f t="array" ref="F42">F41*(Input!F33+Input!F37)/unit</f>
+        <f t="array" ref="F42">F41*(Input!F35+Input!F39)/unit</f>
         <v>5.5640000000000002E-2</v>
       </c>
       <c r="G42" s="35" cm="1">
-        <f t="array" ref="G42">G41*(Input!G33+Input!G37)/unit</f>
+        <f t="array" ref="G42">G41*(Input!G35+Input!G39)/unit</f>
         <v>5.5640000000000002E-2</v>
       </c>
       <c r="H42" s="35" cm="1">
-        <f t="array" ref="H42">H41*(Input!H33+Input!H37)/unit</f>
+        <f t="array" ref="H42">H41*(Input!H35+Input!H39)/unit</f>
         <v>5.5640000000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B45" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="22">
         <f>C40</f>
@@ -4228,65 +7274,65 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="39" cm="1">
-        <f t="array" ref="C46">(Input!C31+Input!C35)*Input!C40/unit</f>
+        <f t="array" ref="C46">(Input!C33+Input!C37)*Input!C42/unit</f>
         <v>1.0399999999999999E-3</v>
       </c>
       <c r="D46" s="39" cm="1">
-        <f t="array" ref="D46">(Input!D31+Input!D35)*Input!D40/unit</f>
+        <f t="array" ref="D46">(Input!D33+Input!D37)*Input!D42/unit</f>
         <v>1.0399999999999999E-3</v>
       </c>
       <c r="E46" s="39" cm="1">
-        <f t="array" ref="E46">(Input!E31+Input!E35)*Input!E40/unit</f>
+        <f t="array" ref="E46">(Input!E33+Input!E37)*Input!E42/unit</f>
         <v>1.0399999999999999E-3</v>
       </c>
       <c r="F46" s="39" cm="1">
-        <f t="array" ref="F46">(Input!F31+Input!F35)*Input!F40/unit</f>
+        <f t="array" ref="F46">(Input!F33+Input!F37)*Input!F42/unit</f>
         <v>1.07E-3</v>
       </c>
       <c r="G46" s="39" cm="1">
-        <f t="array" ref="G46">(Input!G31+Input!G35)*Input!G40/unit</f>
+        <f t="array" ref="G46">(Input!G33+Input!G37)*Input!G42/unit</f>
         <v>1.07E-3</v>
       </c>
       <c r="H46" s="39" cm="1">
-        <f t="array" ref="H46">(Input!H31+Input!H35)*Input!H40/unit</f>
+        <f t="array" ref="H46">(Input!H33+Input!H37)*Input!H42/unit</f>
         <v>1.07E-3</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="47">
-        <f>Input!C42+Input!C43</f>
+        <f>Input!C44+Input!C45</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="D47" s="47">
-        <f>Input!D42+Input!D43</f>
+        <f>Input!D44+Input!D45</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E47" s="47">
-        <f>Input!E42+Input!E43</f>
+        <f>Input!E44+Input!E45</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="F47" s="47">
-        <f>Input!F42+Input!F43</f>
+        <f>Input!F44+Input!F45</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="G47" s="47">
-        <f>Input!G42+Input!G43</f>
+        <f>Input!G44+Input!G45</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="H47" s="47">
-        <f>Input!H42+Input!H43</f>
+        <f>Input!H44+Input!H45</f>
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="39">
         <f>SUM(C46:C47)</f>
@@ -4315,70 +7361,70 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="22">
-        <f>-Input!C42</f>
+        <f>-Input!C44</f>
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="D50" s="22">
-        <f>-Input!D42</f>
+        <f>-Input!D44</f>
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E50" s="22">
-        <f>-Input!E42</f>
+        <f>-Input!E44</f>
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F50" s="22">
-        <f>-Input!F42</f>
+        <f>-Input!F44</f>
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="G50" s="22">
-        <f>-Input!G42</f>
+        <f>-Input!G44</f>
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="H50" s="22">
-        <f>-Input!H42</f>
+        <f>-Input!H44</f>
         <v>-1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="35" cm="1">
-        <f t="array" ref="C53">C48*unit/(Input!C31+Input!C35)</f>
+        <f t="array" ref="C53">C48*unit/(Input!C33+Input!C37)</f>
         <v>34.807692307692307</v>
       </c>
       <c r="D53" s="35" cm="1">
-        <f t="array" ref="D53">D48*unit/(Input!D31+Input!D35)</f>
+        <f t="array" ref="D53">D48*unit/(Input!D33+Input!D37)</f>
         <v>34.807692307692307</v>
       </c>
       <c r="E53" s="35" cm="1">
-        <f t="array" ref="E53">E48*unit/(Input!E31+Input!E35)</f>
+        <f t="array" ref="E53">E48*unit/(Input!E33+Input!E37)</f>
         <v>34.807692307692307</v>
       </c>
       <c r="F53" s="35" cm="1">
-        <f t="array" ref="F53">F48*unit/(Input!F31+Input!F35)</f>
+        <f t="array" ref="F53">F48*unit/(Input!F33+Input!F37)</f>
         <v>33.971962616822431</v>
       </c>
       <c r="G53" s="35" cm="1">
-        <f t="array" ref="G53">G48*unit/(Input!G31+Input!G35)</f>
+        <f t="array" ref="G53">G48*unit/(Input!G33+Input!G37)</f>
         <v>33.971962616822431</v>
       </c>
       <c r="H53" s="35" cm="1">
-        <f t="array" ref="H53">H48*unit/(Input!H31+Input!H35)</f>
+        <f t="array" ref="H53">H48*unit/(Input!H33+Input!H37)</f>
         <v>33.971962616822431</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B58" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="22">
         <f>C45</f>
@@ -4407,12 +7453,12 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="35">
         <f>C13/C10</f>
@@ -4441,65 +7487,65 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="35">
-        <f>Input!C32*Input!C48</f>
+        <f>Input!C34*Input!C50</f>
         <v>2.5</v>
       </c>
       <c r="D61" s="35">
-        <f>Input!D32*Input!D48</f>
+        <f>Input!D34*Input!D50</f>
         <v>2.5</v>
       </c>
       <c r="E61" s="35">
-        <f>Input!E32*Input!E48</f>
+        <f>Input!E34*Input!E50</f>
         <v>2.5</v>
       </c>
       <c r="F61" s="35">
-        <f>Input!F32*Input!F48</f>
+        <f>Input!F34*Input!F50</f>
         <v>2.5</v>
       </c>
       <c r="G61" s="35">
-        <f>Input!G32*Input!G48</f>
+        <f>Input!G34*Input!G50</f>
         <v>2.5</v>
       </c>
       <c r="H61" s="35">
-        <f>Input!H32*Input!H48</f>
+        <f>Input!H34*Input!H50</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="41">
-        <f>C53*Input!C48*'Sales &amp; Prod'!$C$34</f>
+        <f>C53*Input!C50*'Sales &amp; Prod'!$C$34</f>
         <v>6.3672607879924961</v>
       </c>
       <c r="D62" s="41">
-        <f>D53*Input!D48*'Sales &amp; Prod'!$C$34</f>
+        <f>D53*Input!D50*'Sales &amp; Prod'!$C$34</f>
         <v>6.3672607879924961</v>
       </c>
       <c r="E62" s="41">
-        <f>E53*Input!E48*'Sales &amp; Prod'!$C$34</f>
+        <f>E53*Input!E50*'Sales &amp; Prod'!$C$34</f>
         <v>6.3672607879924961</v>
       </c>
       <c r="F62" s="41">
-        <f>F53*Input!F48*'Sales &amp; Prod'!$C$34</f>
+        <f>F53*Input!F50*'Sales &amp; Prod'!$C$34</f>
         <v>6.2143834055162994</v>
       </c>
       <c r="G62" s="41">
-        <f>G53*Input!G48*'Sales &amp; Prod'!$C$34</f>
+        <f>G53*Input!G50*'Sales &amp; Prod'!$C$34</f>
         <v>6.2143834055162994</v>
       </c>
       <c r="H62" s="41">
-        <f>H53*Input!H48*'Sales &amp; Prod'!$C$34</f>
+        <f>H53*Input!H50*'Sales &amp; Prod'!$C$34</f>
         <v>6.2143834055162994</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="35">
         <f>SUM(C60:C62)</f>
@@ -4536,7 +7582,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="41">
         <f>'Sales &amp; Prod'!C28*'Sales &amp; Prod'!$C$34</f>
@@ -4565,7 +7611,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="35">
         <f>C65*C63</f>
@@ -4610,7 +7656,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
@@ -4621,7 +7667,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" s="35">
         <f>C24/C21</f>
@@ -4650,65 +7696,65 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" s="35">
-        <f>Input!C36*Input!C49</f>
+        <f>Input!C38*Input!C51</f>
         <v>0.8</v>
       </c>
       <c r="D71" s="35">
-        <f>Input!D36*Input!D49</f>
+        <f>Input!D38*Input!D51</f>
         <v>0.8</v>
       </c>
       <c r="E71" s="35">
-        <f>Input!E36*Input!E49</f>
+        <f>Input!E38*Input!E51</f>
         <v>0.8</v>
       </c>
       <c r="F71" s="35">
-        <f>Input!F36*Input!F49</f>
+        <f>Input!F38*Input!F51</f>
         <v>0.8</v>
       </c>
       <c r="G71" s="35">
-        <f>Input!G36*Input!G49</f>
+        <f>Input!G38*Input!G51</f>
         <v>0.8</v>
       </c>
       <c r="H71" s="35">
-        <f>Input!H36*Input!H49</f>
+        <f>Input!H38*Input!H51</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="41">
-        <f>C53*Input!C49*'Sales &amp; Prod'!$C$35</f>
+        <f>C53*Input!C51*'Sales &amp; Prod'!$C$35</f>
         <v>0.74709193245778627</v>
       </c>
       <c r="D72" s="41">
-        <f>D53*Input!D49*'Sales &amp; Prod'!$C$35</f>
+        <f>D53*Input!D51*'Sales &amp; Prod'!$C$35</f>
         <v>0.74709193245778627</v>
       </c>
       <c r="E72" s="41">
-        <f>E53*Input!E49*'Sales &amp; Prod'!$C$35</f>
+        <f>E53*Input!E51*'Sales &amp; Prod'!$C$35</f>
         <v>0.74709193245778627</v>
       </c>
       <c r="F72" s="41">
-        <f>F53*Input!F49*'Sales &amp; Prod'!$C$35</f>
+        <f>F53*Input!F51*'Sales &amp; Prod'!$C$35</f>
         <v>0.72915431958057919</v>
       </c>
       <c r="G72" s="41">
-        <f>G53*Input!G49*'Sales &amp; Prod'!$C$35</f>
+        <f>G53*Input!G51*'Sales &amp; Prod'!$C$35</f>
         <v>0.72915431958057919</v>
       </c>
       <c r="H72" s="41">
-        <f>H53*Input!H49*'Sales &amp; Prod'!$C$35</f>
+        <f>H53*Input!H51*'Sales &amp; Prod'!$C$35</f>
         <v>0.72915431958057919</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" s="35">
         <f>SUM(C70:C72)</f>
@@ -4745,7 +7791,7 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C75" s="41">
         <f>'Sales &amp; Prod'!C28*'Sales &amp; Prod'!$C$35</f>
@@ -4774,7 +7820,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C76" s="35">
         <f>C75*C73</f>
@@ -4811,7 +7857,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="35">
         <f>C66+C76</f>
@@ -4853,10 +7899,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B4:H112"/>
+  <dimension ref="B1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4868,38 +7914,44 @@
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="B1" s="75" t="str">
+        <f>Input!B1</f>
+        <v>HasName co,   by elie diwambuena</v>
+      </c>
+    </row>
     <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="22">
-        <f>Input!C4</f>
+        <f>Input!C6</f>
         <v>1</v>
       </c>
       <c r="D4" s="22">
-        <f>Input!D4</f>
+        <f>Input!D6</f>
         <v>2</v>
       </c>
       <c r="E4" s="22">
-        <f>Input!E4</f>
+        <f>Input!E6</f>
         <v>3</v>
       </c>
       <c r="F4" s="22">
-        <f>Input!F4</f>
+        <f>Input!F6</f>
         <v>4</v>
       </c>
       <c r="G4" s="22">
-        <f>Input!G4</f>
+        <f>Input!G6</f>
         <v>5</v>
       </c>
       <c r="H4" s="22">
-        <f>Input!H4</f>
+        <f>Input!H6</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="35">
         <f>'Sales &amp; Prod'!C7</f>
@@ -4928,36 +7980,36 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="41">
-        <f>C6*Input!C14</f>
+        <f>C6*Input!C16</f>
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="D7" s="41">
-        <f>D6*Input!D14</f>
+        <f>D6*Input!D16</f>
         <v>4.3050000000000006E-4</v>
       </c>
       <c r="E7" s="41">
-        <f>E6*Input!E14</f>
+        <f>E6*Input!E16</f>
         <v>4.520250000000001E-4</v>
       </c>
       <c r="F7" s="41">
-        <f>F6*Input!F14</f>
+        <f>F6*Input!F16</f>
         <v>4.7462625000000016E-4</v>
       </c>
       <c r="G7" s="41">
-        <f>G6*Input!G14</f>
+        <f>G6*Input!G16</f>
         <v>4.9835756250000019E-4</v>
       </c>
       <c r="H7" s="41">
-        <f>H6*Input!H14</f>
+        <f>H6*Input!H16</f>
         <v>5.2327544062500016E-4</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="35">
         <f>C7</f>
@@ -4989,157 +8041,157 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="50">
-        <f>Input!C54</f>
+        <f>Input!C56</f>
         <v>4</v>
       </c>
       <c r="D11" s="50">
-        <f>Input!D54</f>
+        <f>Input!D56</f>
         <v>4.5</v>
       </c>
       <c r="E11" s="50">
-        <f>Input!E54</f>
+        <f>Input!E56</f>
         <v>5</v>
       </c>
       <c r="F11" s="50">
-        <f>Input!F54</f>
+        <f>Input!F56</f>
         <v>5.5</v>
       </c>
       <c r="G11" s="50">
-        <f>Input!G54</f>
+        <f>Input!G56</f>
         <v>6</v>
       </c>
       <c r="H11" s="50">
-        <f>Input!H54</f>
+        <f>Input!H56</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="50">
-        <f>Input!C55</f>
+        <f>Input!C57</f>
         <v>5</v>
       </c>
       <c r="D12" s="50">
-        <f>Input!D55</f>
+        <f>Input!D57</f>
         <v>5.25</v>
       </c>
       <c r="E12" s="50">
-        <f>Input!E55</f>
+        <f>Input!E57</f>
         <v>5.5125000000000002</v>
       </c>
       <c r="F12" s="50">
-        <f>Input!F55</f>
+        <f>Input!F57</f>
         <v>5.7881250000000009</v>
       </c>
       <c r="G12" s="50">
-        <f>Input!G55</f>
+        <f>Input!G57</f>
         <v>6.0775312500000007</v>
       </c>
       <c r="H12" s="50">
-        <f>Input!H55</f>
+        <f>Input!H57</f>
         <v>6.3814078125000009</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="50">
-        <f>Input!C56</f>
+        <f>Input!C58</f>
         <v>1</v>
       </c>
       <c r="D13" s="50">
-        <f>Input!D56</f>
+        <f>Input!D58</f>
         <v>1</v>
       </c>
       <c r="E13" s="50">
-        <f>Input!E56</f>
+        <f>Input!E58</f>
         <v>1</v>
       </c>
       <c r="F13" s="50">
-        <f>Input!F56</f>
+        <f>Input!F58</f>
         <v>1</v>
       </c>
       <c r="G13" s="50">
-        <f>Input!G56</f>
+        <f>Input!G58</f>
         <v>1</v>
       </c>
       <c r="H13" s="50">
-        <f>Input!H56</f>
+        <f>Input!H58</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="6">
-        <f>Input!C43</f>
+        <f>Input!C45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D14" s="6">
-        <f>Input!D43</f>
+        <f>Input!D45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E14" s="6">
-        <f>Input!E43</f>
+        <f>Input!E45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="6">
-        <f>Input!F43</f>
+        <f>Input!F45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G14" s="6">
-        <f>Input!G43</f>
+        <f>Input!G45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="6">
-        <f>Input!H43</f>
+        <f>Input!H45</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="22">
-        <f>Input!C42</f>
+        <f>Input!C44</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="D15" s="22">
-        <f>Input!D42</f>
+        <f>Input!D44</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E15" s="22">
-        <f>Input!E42</f>
+        <f>Input!E44</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="F15" s="22">
-        <f>Input!F42</f>
+        <f>Input!F44</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="G15" s="22">
-        <f>Input!G42</f>
+        <f>Input!G44</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="H15" s="22">
-        <f>Input!H42</f>
+        <f>Input!H44</f>
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="50">
         <f>SUM(C11:C15)</f>
@@ -5177,7 +8229,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="50">
         <f>C16+C8</f>
@@ -5206,7 +8258,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="22">
         <f>-C15</f>
@@ -5235,7 +8287,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="50">
         <f>SUM(C18:C19)</f>
@@ -5264,7 +8316,7 @@
     </row>
     <row r="26" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="22">
         <f>C4</f>
@@ -5293,7 +8345,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -5301,12 +8353,12 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="35">
         <f>'Sales &amp; Prod'!C20</f>
@@ -5335,7 +8387,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="35">
         <f>C30</f>
@@ -5373,12 +8425,12 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="35">
         <f>'RM &amp; DL &amp; FG'!C27</f>
@@ -5407,7 +8459,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="35">
         <f>'RM &amp; DL &amp; FG'!C42</f>
@@ -5436,7 +8488,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="35">
         <f>'RM &amp; DL &amp; FG'!C48</f>
@@ -5465,7 +8517,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="41">
         <f>C20</f>
@@ -5494,7 +8546,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="50">
         <f>SUM(C34:C37)</f>
@@ -5532,7 +8584,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -5543,7 +8595,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -5551,7 +8603,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -5562,7 +8614,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="50">
         <f>C38+C40+C43</f>
@@ -5594,7 +8646,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="35">
         <f>C31-C44</f>
@@ -5623,22 +8675,22 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -5649,12 +8701,12 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="35">
         <f>C46+C52</f>
@@ -5683,7 +8735,7 @@
     </row>
     <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.2">
       <c r="B57" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57" s="22">
         <f>C26</f>
@@ -5712,7 +8764,7 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="6">
         <f>'Sales &amp; Prod'!C11</f>
@@ -5741,7 +8793,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="65">
         <f>-C7</f>
@@ -5770,7 +8822,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="63">
         <f>C58-C59</f>
@@ -5799,7 +8851,7 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="63">
         <f>C34+C35+C36</f>
@@ -5828,7 +8880,7 @@
     </row>
     <row r="62" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B62" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="69">
         <f>C11</f>
@@ -5857,7 +8909,7 @@
     </row>
     <row r="63" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B63" s="67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C63" s="69">
         <f>C12</f>
@@ -5886,7 +8938,7 @@
     </row>
     <row r="64" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B64" s="68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="70">
         <f>C60-SUM(C61:C63)</f>
@@ -5915,7 +8967,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="35">
         <f>C60-C61</f>
@@ -5944,7 +8996,7 @@
     </row>
     <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B66" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" s="73">
         <f>C15</f>
@@ -5973,7 +9025,7 @@
     </row>
     <row r="67" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B67" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" s="72">
         <f>C13+C14</f>
@@ -6002,7 +9054,7 @@
     </row>
     <row r="68" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B68" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="72">
         <f>C64-SUM(C66:C67)</f>
@@ -6031,7 +9083,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="52">
         <f>C16</f>
@@ -6060,7 +9112,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" s="35">
         <f>C65-C70</f>
@@ -6089,7 +9141,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -6100,7 +9152,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" s="35">
         <f>C71-C73</f>
@@ -6129,7 +9181,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" s="41">
         <f>-C74*0.25</f>
@@ -6158,7 +9210,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" s="35">
         <f>SUM(C74:C76)</f>
@@ -6187,7 +9239,7 @@
     </row>
     <row r="81" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B81" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="22">
         <f>C57</f>
@@ -6216,12 +9268,12 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="35">
         <f>C54</f>
@@ -6250,7 +9302,7 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="35">
         <f>'Sales &amp; Prod'!D18+'Sales &amp; Prod'!D19</f>
@@ -6279,7 +9331,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="35">
         <f>'RM &amp; DL &amp; FG'!C19</f>
@@ -6308,7 +9360,7 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86" s="41">
         <f>'RM &amp; DL &amp; FG'!C78</f>
@@ -6337,7 +9389,7 @@
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C87" s="35">
         <f>SUM(C83:C86)</f>
@@ -6369,7 +9421,7 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C89" s="50"/>
       <c r="D89" s="50"/>
@@ -6380,36 +9432,36 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" s="52">
-        <f>Input!C56</f>
+        <f>Input!C58</f>
         <v>1</v>
       </c>
       <c r="D90" s="52">
-        <f>Input!D56</f>
+        <f>Input!D58</f>
         <v>1</v>
       </c>
       <c r="E90" s="52">
-        <f>Input!E56</f>
+        <f>Input!E58</f>
         <v>1</v>
       </c>
       <c r="F90" s="52">
-        <f>Input!F56</f>
+        <f>Input!F58</f>
         <v>1</v>
       </c>
       <c r="G90" s="52">
-        <f>Input!G56</f>
+        <f>Input!G58</f>
         <v>1</v>
       </c>
       <c r="H90" s="52">
-        <f>Input!H56</f>
+        <f>Input!H58</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C91" s="50">
         <f t="shared" ref="C91:H91" si="27">SUM(C89:C90)</f>
@@ -6438,7 +9490,7 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" s="3">
         <f>C87+C91</f>
@@ -6476,7 +9528,7 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6487,7 +9539,7 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C96" s="3">
         <f>'RM &amp; DL &amp; FG'!D34+'RM &amp; DL &amp; FG'!D35</f>
@@ -6516,7 +9568,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -6527,7 +9579,7 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="3">
         <f>SUM(C96:C97)</f>
@@ -6565,7 +9617,7 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
@@ -6576,7 +9628,7 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C101" s="3">
         <f>C100</f>
@@ -6614,7 +9666,7 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C103" s="1">
         <f>C93-C98-C104</f>
@@ -6643,7 +9695,7 @@
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C104" s="26">
         <f>C77</f>
@@ -6672,7 +9724,7 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="1">
         <f>SUM(C103:C104)</f>
@@ -6710,7 +9762,7 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107" s="3">
         <f>C105+C101+C98</f>
@@ -6791,137 +9843,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D3EAE0-C113-6145-B183-0FCD62427E4B}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="6.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
-        <v>190</v>
+      <c r="B2" s="76" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="64">
-        <f>Input!C4</f>
+        <f>Input!C6</f>
         <v>1</v>
       </c>
       <c r="D2" s="64">
-        <f>Input!D4</f>
+        <f>Input!D6</f>
         <v>2</v>
       </c>
       <c r="E2" s="64">
-        <f>Input!E4</f>
+        <f>Input!E6</f>
         <v>3</v>
       </c>
       <c r="F2" s="64">
-        <f>Input!F4</f>
+        <f>Input!F6</f>
         <v>4</v>
       </c>
       <c r="G2" s="64">
-        <f>Input!G4</f>
+        <f>Input!G6</f>
         <v>5</v>
       </c>
       <c r="H2" s="64">
-        <f>Input!H4</f>
+        <f>Input!H6</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="77">
+    <row r="3" spans="2:8" s="77" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="78">
         <f>'Sales &amp; Prod'!C9-'SGA &amp; PL &amp; BS'!C7*'Sales &amp; Prod'!$C$34</f>
         <v>23.999700000000001</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="78">
         <f>'Sales &amp; Prod'!D9-'SGA &amp; PL &amp; BS'!D7*'Sales &amp; Prod'!$C$34</f>
         <v>25.199685000000002</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="78">
         <f>'Sales &amp; Prod'!E9-'SGA &amp; PL &amp; BS'!E7*'Sales &amp; Prod'!$C$34</f>
         <v>26.459669250000005</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="78">
         <f>'Sales &amp; Prod'!F9-'SGA &amp; PL &amp; BS'!F7*'Sales &amp; Prod'!$C$34</f>
         <v>27.782652712500006</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="78">
         <f>'Sales &amp; Prod'!G9-'SGA &amp; PL &amp; BS'!G7*'Sales &amp; Prod'!$C$34</f>
         <v>29.171785348125006</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="78">
         <f>'Sales &amp; Prod'!H9-'SGA &amp; PL &amp; BS'!H7*'Sales &amp; Prod'!$C$34</f>
         <v>30.63037461553126</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="77">
+    <row r="4" spans="2:8" s="77" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="78">
         <f>'RM &amp; DL &amp; FG'!C13+('RM &amp; DL &amp; FG'!C42+'RM &amp; DL &amp; FG'!C48)*'Sales &amp; Prod'!$C$34</f>
         <v>10.042346341463416</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="78">
         <f>'RM &amp; DL &amp; FG'!D13+('RM &amp; DL &amp; FG'!D42+'RM &amp; DL &amp; FG'!D48)*'Sales &amp; Prod'!$C$34</f>
         <v>9.5342963414634152</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="78">
         <f>'RM &amp; DL &amp; FG'!E13+('RM &amp; DL &amp; FG'!E42+'RM &amp; DL &amp; FG'!E48)*'Sales &amp; Prod'!$C$34</f>
         <v>10.017843841463421</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="78">
         <f>'RM &amp; DL &amp; FG'!F13+('RM &amp; DL &amp; FG'!F42+'RM &amp; DL &amp; FG'!F48)*'Sales &amp; Prod'!$C$34</f>
         <v>10.519254082317076</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="78">
         <f>'RM &amp; DL &amp; FG'!G13+('RM &amp; DL &amp; FG'!G42+'RM &amp; DL &amp; FG'!G48)*'Sales &amp; Prod'!$C$34</f>
         <v>11.04291520106708</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="78">
         <f>'RM &amp; DL &amp; FG'!H13+('RM &amp; DL &amp; FG'!H42+'RM &amp; DL &amp; FG'!H48)*'Sales &amp; Prod'!$C$34</f>
         <v>11.592759375754579</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="79">
+    <row r="5" spans="2:8" s="77" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="80">
         <f>('SGA &amp; PL &amp; BS'!C11+'SGA &amp; PL &amp; BS'!C12)*'Sales &amp; Prod'!$C$34</f>
         <v>6.5853658536585371</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="80">
         <f>('SGA &amp; PL &amp; BS'!D11+'SGA &amp; PL &amp; BS'!D12)*'Sales &amp; Prod'!$C$34</f>
         <v>7.1341463414634152</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="80">
         <f>('SGA &amp; PL &amp; BS'!E11+'SGA &amp; PL &amp; BS'!E12)*'Sales &amp; Prod'!$C$34</f>
         <v>7.6920731707317076</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="80">
         <f>('SGA &amp; PL &amp; BS'!F11+'SGA &amp; PL &amp; BS'!F12)*'Sales &amp; Prod'!$C$34</f>
         <v>8.2596036585365873</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="80">
         <f>('SGA &amp; PL &amp; BS'!G11+'SGA &amp; PL &amp; BS'!G12)*'Sales &amp; Prod'!$C$34</f>
         <v>8.8372179878048787</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="80">
         <f>('SGA &amp; PL &amp; BS'!H11+'SGA &amp; PL &amp; BS'!H12)*'Sales &amp; Prod'!$C$34</f>
         <v>9.4254203506097571</v>
       </c>
     </row>
     <row r="6" spans="2:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="35">
         <f>C3-SUM(C4:C5)</f>
@@ -6950,7 +10002,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="35">
         <f>C6/'Sales &amp; Prod'!C5</f>
@@ -6978,133 +10030,133 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="83">
+      <c r="B8" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="84">
         <f>C6/C3</f>
         <v>0.30716999816156237</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="84">
         <f t="shared" ref="D8:H8" si="0">D6/D3</f>
         <v>0.33854559360853803</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="84">
         <f t="shared" si="0"/>
         <v>0.33068260056972842</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="84">
         <f t="shared" si="0"/>
         <v>0.32407974374582826</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="84">
         <f t="shared" si="0"/>
         <v>0.3185150325346906</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="84">
         <f t="shared" si="0"/>
         <v>0.31381251485879702</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="79">
+      <c r="B9" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="80">
         <f>'Sales &amp; Prod'!C10-'SGA &amp; PL &amp; BS'!C7*'Sales &amp; Prod'!$C$35</f>
         <v>4.3998900000000001</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="80">
         <f>'Sales &amp; Prod'!D10-'SGA &amp; PL &amp; BS'!D7*'Sales &amp; Prod'!$C$35</f>
         <v>4.6198845000000013</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="80">
         <f>'Sales &amp; Prod'!E10-'SGA &amp; PL &amp; BS'!E7*'Sales &amp; Prod'!$C$35</f>
         <v>4.8508787250000012</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="80">
         <f>'Sales &amp; Prod'!F10-'SGA &amp; PL &amp; BS'!F7*'Sales &amp; Prod'!$C$35</f>
         <v>5.0934226612500018</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="80">
         <f>'Sales &amp; Prod'!G10-'SGA &amp; PL &amp; BS'!G7*'Sales &amp; Prod'!$C$35</f>
         <v>5.3480937943125015</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="80">
         <f>'Sales &amp; Prod'!H10-'SGA &amp; PL &amp; BS'!H7*'Sales &amp; Prod'!$C$35</f>
         <v>5.6154984840281266</v>
       </c>
     </row>
     <row r="10" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="79">
+      <c r="B10" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="80">
         <f>'RM &amp; DL &amp; FG'!C24+('RM &amp; DL &amp; FG'!C42+'RM &amp; DL &amp; FG'!C48)*'Sales &amp; Prod'!$C$35</f>
         <v>0.4436286585365854</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="80">
         <f>'RM &amp; DL &amp; FG'!D24+('RM &amp; DL &amp; FG'!D42+'RM &amp; DL &amp; FG'!D48)*'Sales &amp; Prod'!$C$35</f>
         <v>0.42189540853658547</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="80">
         <f>'RM &amp; DL &amp; FG'!E24+('RM &amp; DL &amp; FG'!E42+'RM &amp; DL &amp; FG'!E48)*'Sales &amp; Prod'!$C$35</f>
         <v>0.44258049603658556</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="80">
         <f>'RM &amp; DL &amp; FG'!F24+('RM &amp; DL &amp; FG'!F42+'RM &amp; DL &amp; FG'!F48)*'Sales &amp; Prod'!$C$35</f>
         <v>0.46489947205792698</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="80">
         <f>'RM &amp; DL &amp; FG'!G24+('RM &amp; DL &amp; FG'!G42+'RM &amp; DL &amp; FG'!G48)*'Sales &amp; Prod'!$C$35</f>
         <v>0.48730053102667709</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="80">
         <f>'RM &amp; DL &amp; FG'!H24+('RM &amp; DL &amp; FG'!H42+'RM &amp; DL &amp; FG'!H48)*'Sales &amp; Prod'!$C$35</f>
         <v>0.51082164294386456</v>
       </c>
     </row>
     <row r="11" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="79">
+      <c r="B11" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="80">
         <f>('SGA &amp; PL &amp; BS'!C11+'SGA &amp; PL &amp; BS'!C12)*'Sales &amp; Prod'!$C$35</f>
         <v>2.4146341463414642</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="80">
         <f>('SGA &amp; PL &amp; BS'!D11+'SGA &amp; PL &amp; BS'!D12)*'Sales &amp; Prod'!$C$35</f>
         <v>2.6158536585365861</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="80">
         <f>('SGA &amp; PL &amp; BS'!E11+'SGA &amp; PL &amp; BS'!E12)*'Sales &amp; Prod'!$C$35</f>
         <v>2.8204268292682935</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="80">
         <f>('SGA &amp; PL &amp; BS'!F11+'SGA &amp; PL &amp; BS'!F12)*'Sales &amp; Prod'!$C$35</f>
         <v>3.0285213414634158</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="80">
         <f>('SGA &amp; PL &amp; BS'!G11+'SGA &amp; PL &amp; BS'!G12)*'Sales &amp; Prod'!$C$35</f>
         <v>3.2403132621951229</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="80">
         <f>('SGA &amp; PL &amp; BS'!H11+'SGA &amp; PL &amp; BS'!H12)*'Sales &amp; Prod'!$C$35</f>
         <v>3.4559874618902451</v>
       </c>
     </row>
     <row r="12" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="2:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="35">
         <f>C9-SUM(C10:C11)</f>
@@ -7133,7 +10185,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="42">
         <f>C13/'Sales &amp; Prod'!C6</f>
@@ -7161,40 +10213,40 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="83">
+      <c r="B15" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="84">
         <f>C13/C9</f>
         <v>0.35037857653758403</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="84">
         <f t="shared" ref="D15:H15" si="1">D13/D9</f>
         <v>0.34246211846353064</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="84">
         <f t="shared" si="1"/>
         <v>0.32733685785870098</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="84">
         <f t="shared" si="1"/>
         <v>0.31413097913535309</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G15" s="84">
         <f t="shared" si="1"/>
         <v>0.30300141759181964</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="84">
         <f t="shared" si="1"/>
         <v>0.29359626467415123</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="76"/>
+      <c r="B16" s="77"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="35">
         <f>'SGA &amp; PL &amp; BS'!C66+'SGA &amp; PL &amp; BS'!C67</f>
@@ -7223,7 +10275,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="35">
         <f>C17*'Sales &amp; Prod'!$C$34</f>
@@ -7252,7 +10304,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="63">
         <f>C18*'Sales &amp; Prod'!$C$35</f>
@@ -7281,7 +10333,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="62"/>
-      <c r="C20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
       <c r="F20" s="62"/>
@@ -7290,7 +10342,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="62"/>
-      <c r="C21" s="86"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
@@ -7298,225 +10350,243 @@
       <c r="H21" s="62"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="B22" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="88">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="88">
+        <f t="shared" ref="D22:H22" si="2">D2</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="88">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="88">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G22" s="88">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="88">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B23" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="81">
+      <c r="B23" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="82">
         <f>C18/C7</f>
         <v>0.29961141632051452</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="82">
         <f>D17/D7</f>
         <v>0.37152033457741201</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="82">
         <f>E17/E7</f>
         <v>0.38035436999241534</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="82">
         <f>F17/F7</f>
         <v>0.38810377579722349</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="82">
         <f>G17/G7</f>
         <v>0.39488425775776781</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="82">
         <f>H17/H7</f>
         <v>0.40080164509610772</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B24" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="81">
+      <c r="B24" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="82">
         <f>C18/C8</f>
         <v>2.3968613694224845</v>
       </c>
-      <c r="D24" s="81">
-        <f t="shared" ref="D24:H24" si="2">D18/D8</f>
+      <c r="D24" s="82">
+        <f t="shared" ref="D24:H24" si="3">D18/D8</f>
         <v>2.1747259935993939</v>
       </c>
-      <c r="E24" s="81">
-        <f t="shared" si="2"/>
+      <c r="E24" s="82">
+        <f t="shared" si="3"/>
         <v>2.2264367740260909</v>
       </c>
-      <c r="F24" s="81">
-        <f t="shared" si="2"/>
+      <c r="F24" s="82">
+        <f t="shared" si="3"/>
         <v>2.2717985824391773</v>
       </c>
-      <c r="G24" s="81">
-        <f t="shared" si="2"/>
+      <c r="G24" s="82">
+        <f t="shared" si="3"/>
         <v>2.3114887124168546</v>
       </c>
-      <c r="H24" s="81">
-        <f t="shared" si="2"/>
+      <c r="H24" s="82">
+        <f t="shared" si="3"/>
         <v>2.3461266443446482</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="81">
+      <c r="B25" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="82">
         <f>C3-C24</f>
         <v>21.602838630577516</v>
       </c>
-      <c r="D25" s="81">
-        <f t="shared" ref="D25:H25" si="3">D3-D24</f>
+      <c r="D25" s="82">
+        <f t="shared" ref="D25:H25" si="4">D3-D24</f>
         <v>23.024959006400607</v>
       </c>
-      <c r="E25" s="81">
-        <f t="shared" si="3"/>
+      <c r="E25" s="82">
+        <f t="shared" si="4"/>
         <v>24.233232475973914</v>
       </c>
-      <c r="F25" s="81">
-        <f t="shared" si="3"/>
+      <c r="F25" s="82">
+        <f t="shared" si="4"/>
         <v>25.510854130060828</v>
       </c>
-      <c r="G25" s="81">
-        <f t="shared" si="3"/>
+      <c r="G25" s="82">
+        <f t="shared" si="4"/>
         <v>26.860296635708153</v>
       </c>
-      <c r="H25" s="81">
-        <f t="shared" si="3"/>
+      <c r="H25" s="82">
+        <f t="shared" si="4"/>
         <v>28.284247971186613</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
     </row>
     <row r="27" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B27" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="81">
+      <c r="B27" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="82">
         <f>C19/C14</f>
         <v>0.14094311371050058</v>
       </c>
-      <c r="D27" s="81">
-        <f t="shared" ref="D27:H27" si="4">D17/D14</f>
+      <c r="D27" s="82">
+        <f t="shared" ref="D27:H27" si="5">D17/D14</f>
         <v>0.7345521602092504</v>
       </c>
-      <c r="E27" s="81">
-        <f t="shared" si="4"/>
+      <c r="E27" s="82">
+        <f t="shared" si="5"/>
         <v>0.76849362626866191</v>
       </c>
-      <c r="F27" s="81">
-        <f t="shared" si="4"/>
+      <c r="F27" s="82">
+        <f t="shared" si="5"/>
         <v>0.80080063927356804</v>
       </c>
-      <c r="G27" s="81">
-        <f t="shared" si="4"/>
+      <c r="G27" s="82">
+        <f t="shared" si="5"/>
         <v>0.8302148910936783</v>
       </c>
-      <c r="H27" s="81">
-        <f t="shared" si="4"/>
+      <c r="H27" s="82">
+        <f t="shared" si="5"/>
         <v>0.85681024990700505</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B28" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="81">
+      <c r="B28" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="82">
         <f>C19/C15</f>
         <v>0.56375836053063122</v>
       </c>
-      <c r="D28" s="81">
-        <f t="shared" ref="D28:H28" si="5">D19/D15</f>
+      <c r="D28" s="82">
+        <f t="shared" ref="D28:H28" si="6">D19/D15</f>
         <v>0.57679036957461283</v>
       </c>
-      <c r="E28" s="81">
-        <f t="shared" si="5"/>
+      <c r="E28" s="82">
+        <f t="shared" si="6"/>
         <v>0.60344213348302633</v>
       </c>
-      <c r="F28" s="81">
-        <f t="shared" si="5"/>
+      <c r="F28" s="82">
+        <f t="shared" si="6"/>
         <v>0.62881048032124598</v>
       </c>
-      <c r="G28" s="81">
-        <f t="shared" si="5"/>
+      <c r="G28" s="82">
+        <f t="shared" si="6"/>
         <v>0.65190735226189744</v>
       </c>
-      <c r="H28" s="81">
-        <f t="shared" si="5"/>
+      <c r="H28" s="82">
+        <f t="shared" si="6"/>
         <v>0.6727907526109459</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="81">
+      <c r="B29" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="82">
         <f>C9-C28</f>
         <v>3.836131639469369</v>
       </c>
-      <c r="D29" s="81">
-        <f t="shared" ref="D29:H29" si="6">D9-D28</f>
+      <c r="D29" s="82">
+        <f t="shared" ref="D29:H29" si="7">D9-D28</f>
         <v>4.0430941304253887</v>
       </c>
-      <c r="E29" s="81">
-        <f t="shared" si="6"/>
+      <c r="E29" s="82">
+        <f t="shared" si="7"/>
         <v>4.2474365915169745</v>
       </c>
-      <c r="F29" s="81">
-        <f t="shared" si="6"/>
+      <c r="F29" s="82">
+        <f t="shared" si="7"/>
         <v>4.4646121809287553</v>
       </c>
-      <c r="G29" s="81">
-        <f t="shared" si="6"/>
+      <c r="G29" s="82">
+        <f t="shared" si="7"/>
         <v>4.6961864420506041</v>
       </c>
-      <c r="H29" s="81">
-        <f t="shared" si="6"/>
+      <c r="H29" s="82">
+        <f t="shared" si="7"/>
         <v>4.9427077314171806</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
+      <c r="B31" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C32" s="42"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="85" t="s">
-        <v>208</v>
+      <c r="B33" s="86" t="s">
+        <v>206</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
@@ -7527,7 +10597,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C34" s="39">
         <f>'SGA &amp; PL &amp; BS'!C64/'SGA &amp; PL &amp; BS'!C71</f>
@@ -7559,10 +10629,11 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HasNameCo Master-Plan.xlsx
+++ b/HasNameCo Master-Plan.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:18001_{A2CC6622-B7F5-3F49-9D15-6A2D7933EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{4BF37AE5-89A9-0F48-BE34-397E5FE22518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="247">
   <si>
     <t> </t>
   </si>
@@ -4845,10 +4845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD714F5-1C7F-4136-BC45-C0D8A74B0D61}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,14 +4956,18 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -4977,110 +4981,112 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6" t="s">
+      <c r="A14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>2</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="100"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="101"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>3</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>4</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="100"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>5</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="101"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -5088,84 +5094,58 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="107" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="105" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="105"/>
-    </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="106" t="s">
+      <c r="C27" s="105"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="106"/>
-    </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="106" t="s">
+      <c r="C28" s="106"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="106" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8U99rULtW2WcvHr6dFpg6Ss0qeDchT2a/JUUaucDktAtrr7rm0Q/FteTZmLUaGiP6QxsJoEwnhienX63+Zz5ow==" saltValue="jAE0ZWfnYf1QF1vVESuyNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7mUt0IC44kCt4Bnp4ABzTVuuRR07z3GJOjaykJ+q/tb3kaD2xoCN/YRKcc17LfJdgYfZV+qnw5kSscwpcji4Xg==" saltValue="GBaHLGCNUC7NhikN3cNS6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5177,7 +5157,7 @@
   </sheetPr>
   <dimension ref="B1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -6188,7 +6168,7 @@
   </sheetPr>
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -10485,7 +10465,7 @@
   </sheetPr>
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -11282,7 +11262,7 @@
   </sheetPr>
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -11953,7 +11933,7 @@
   </sheetPr>
   <dimension ref="B2:I79"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>

--- a/HasNameCo Master-Plan.xlsx
+++ b/HasNameCo Master-Plan.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <fileSharing userName="Microsoft Office User" algorithmName="SHA-512" hashValue="3GudJb6TxU1WFf1iwHVvDpQLIHcXk0fVIFtY/XpCrdRKyrtFnLTT7JVi3Cu9VtOPkYGPGI0fUZ3/+azh9CQ9nQ==" saltValue="kuV80t94sEvITglD3n6x+g==" spinCount="100000"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{4BF37AE5-89A9-0F48-BE34-397E5FE22518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{253A0BA8-B7FD-3849-9D3F-155ABD670019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="6" r:id="rId1"/>
@@ -1577,6 +1576,28 @@
           <c:val>
             <c:numRef>
               <c:f>Dash!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23.999700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.199685000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.459669250000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.782652712500006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.171785348125006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.63037461553126</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1639,6 +1660,28 @@
           <c:val>
             <c:numRef>
               <c:f>Dash!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.042346341463416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5342963414634152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.017843841463421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.519254082317076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.04291520106708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.592759375754579</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1701,6 +1744,28 @@
           <c:val>
             <c:numRef>
               <c:f>Dash!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.5853658536585371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1341463414634152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6920731707317076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2596036585365873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8372179878048787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4254203506097571</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1849,6 +1914,28 @@
           <c:val>
             <c:numRef>
               <c:f>Dash!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3998900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6198845000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8508787250000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0934226612500018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3480937943125015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6154984840281266</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1913,6 +2000,28 @@
           <c:val>
             <c:numRef>
               <c:f>Dash!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4436286585365854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42189540853658547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44258049603658556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46489947205792698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48730053102667709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51082164294386456</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1977,6 +2086,28 @@
           <c:val>
             <c:numRef>
               <c:f>Dash!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4146341463414642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6158536585365861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8204268292682935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0285213414634158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2403132621951229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4559874618902451</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2038,6 +2169,10 @@
           <c:val>
             <c:numRef>
               <c:f>Dash!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2410,7 +2545,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4384,16 +4519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438786</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99676</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>299086</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>290177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23283</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4420,16 +4555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>74867</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379667</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4847,7 +4982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD714F5-1C7F-4136-BC45-C0D8A74B0D61}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -10465,8 +10600,8 @@
   </sheetPr>
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -10512,7 +10647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="62" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
         <v>191</v>
       </c>
@@ -10541,7 +10676,7 @@
         <v>30.63037461553126</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="62" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B5" s="64" t="s">
         <v>188</v>
       </c>
@@ -10570,7 +10705,7 @@
         <v>11.592759375754579</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="62" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" s="64" t="s">
         <v>189</v>
       </c>
@@ -10599,7 +10734,7 @@
         <v>9.4254203506097571</v>
       </c>
     </row>
-    <row r="7" spans="2:8" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>187</v>
       </c>
@@ -10686,7 +10821,7 @@
         <v>0.31381251485879702</v>
       </c>
     </row>
-    <row r="10" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B10" s="62" t="s">
         <v>190</v>
       </c>
@@ -10715,7 +10850,7 @@
         <v>5.6154984840281266</v>
       </c>
     </row>
-    <row r="11" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B11" s="64" t="s">
         <v>188</v>
       </c>
@@ -10744,7 +10879,7 @@
         <v>0.51082164294386456</v>
       </c>
     </row>
-    <row r="12" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B12" s="64" t="s">
         <v>189</v>
       </c>
@@ -10773,7 +10908,7 @@
         <v>3.4559874618902451</v>
       </c>
     </row>
-    <row r="13" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
@@ -10782,7 +10917,7 @@
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="2:8" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>192</v>
       </c>
@@ -11249,7 +11384,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bHND5xaQKCijr8pzkUGvtfj9nCSdjwPKxFgBd5doHKUaLY5PwsbEISVMuNwk2Jwh+g5Qg7RSxwLFjac3A6EcHg==" saltValue="65Z/bhA7iCa/Lb8h1LGgFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1D7gxBZWW4hXXsWm6De0di/79KTWdZyutkMXTMcHnoQsGaQIawE2+4su+ae9J3NRdYdumERoPgXtlziQI7SjWw==" saltValue="8Lm6lt9iymld64OUJ8mmvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HasNameCo Master-Plan.xlsx
+++ b/HasNameCo Master-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{253A0BA8-B7FD-3849-9D3F-155ABD670019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9895BAA4-798E-4B4E-9ED9-29EC4648FB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
@@ -6977,7 +6977,7 @@
   </sheetPr>
   <dimension ref="B1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
